--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ZEPP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,22 +712,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>982900</v>
+        <v>1003700</v>
       </c>
       <c r="E8" s="3">
-        <v>888000</v>
+        <v>906800</v>
       </c>
       <c r="F8" s="3">
-        <v>556900</v>
+        <v>568700</v>
       </c>
       <c r="G8" s="3">
-        <v>313000</v>
+        <v>319600</v>
       </c>
       <c r="H8" s="3">
-        <v>237800</v>
+        <v>242800</v>
       </c>
       <c r="I8" s="3">
-        <v>137000</v>
+        <v>139900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,22 +739,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>779300</v>
+        <v>795800</v>
       </c>
       <c r="E9" s="3">
-        <v>663800</v>
+        <v>677800</v>
       </c>
       <c r="F9" s="3">
-        <v>413400</v>
+        <v>422100</v>
       </c>
       <c r="G9" s="3">
-        <v>237400</v>
+        <v>242500</v>
       </c>
       <c r="H9" s="3">
-        <v>195600</v>
+        <v>199700</v>
       </c>
       <c r="I9" s="3">
-        <v>120100</v>
+        <v>122600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -766,22 +766,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>203600</v>
+        <v>207900</v>
       </c>
       <c r="E10" s="3">
-        <v>224200</v>
+        <v>229000</v>
       </c>
       <c r="F10" s="3">
-        <v>143500</v>
+        <v>146600</v>
       </c>
       <c r="G10" s="3">
-        <v>75600</v>
+        <v>77200</v>
       </c>
       <c r="H10" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="I10" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>82200</v>
+        <v>83900</v>
       </c>
       <c r="E12" s="3">
-        <v>65800</v>
+        <v>67200</v>
       </c>
       <c r="F12" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="G12" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="H12" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="I12" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -859,8 +859,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>-8800</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -924,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>956300</v>
+        <v>967700</v>
       </c>
       <c r="E17" s="3">
-        <v>795700</v>
+        <v>812600</v>
       </c>
       <c r="F17" s="3">
-        <v>502200</v>
+        <v>512800</v>
       </c>
       <c r="G17" s="3">
-        <v>285200</v>
+        <v>291300</v>
       </c>
       <c r="H17" s="3">
-        <v>235800</v>
+        <v>240700</v>
       </c>
       <c r="I17" s="3">
-        <v>143100</v>
+        <v>146100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -951,22 +951,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26600</v>
+        <v>36000</v>
       </c>
       <c r="E18" s="3">
-        <v>92300</v>
+        <v>94200</v>
       </c>
       <c r="F18" s="3">
-        <v>54700</v>
+        <v>55900</v>
       </c>
       <c r="G18" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="H18" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I18" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14000</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
         <v>4400</v>
@@ -1017,23 +1017,23 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>45700</v>
       </c>
       <c r="E21" s="3">
-        <v>102300</v>
+        <v>104500</v>
       </c>
       <c r="F21" s="3">
-        <v>60000</v>
+        <v>61300</v>
       </c>
       <c r="G21" s="3">
-        <v>29900</v>
+        <v>30500</v>
       </c>
       <c r="H21" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I21" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1072,22 +1072,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>40600</v>
+        <v>41400</v>
       </c>
       <c r="E23" s="3">
-        <v>99700</v>
+        <v>101800</v>
       </c>
       <c r="F23" s="3">
-        <v>59100</v>
+        <v>60300</v>
       </c>
       <c r="G23" s="3">
-        <v>29300</v>
+        <v>29900</v>
       </c>
       <c r="H23" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I23" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="F24" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
@@ -1153,22 +1153,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35800</v>
+        <v>36600</v>
       </c>
       <c r="E26" s="3">
-        <v>87800</v>
+        <v>89600</v>
       </c>
       <c r="F26" s="3">
-        <v>51100</v>
+        <v>52200</v>
       </c>
       <c r="G26" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="H26" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1180,22 +1180,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="E27" s="3">
-        <v>87500</v>
+        <v>89400</v>
       </c>
       <c r="F27" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G27" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H27" s="3">
         <v>-1900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14000</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
         <v>-4400</v>
@@ -1342,22 +1342,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="E33" s="3">
-        <v>87500</v>
+        <v>89400</v>
       </c>
       <c r="F33" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G33" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H33" s="3">
         <v>-1900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="E35" s="3">
-        <v>87500</v>
+        <v>89400</v>
       </c>
       <c r="F35" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G35" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H35" s="3">
         <v>-1900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1481,22 +1481,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>348100</v>
+        <v>355400</v>
       </c>
       <c r="E41" s="3">
-        <v>275500</v>
+        <v>281300</v>
       </c>
       <c r="F41" s="3">
-        <v>235100</v>
+        <v>240100</v>
       </c>
       <c r="G41" s="3">
-        <v>56000</v>
+        <v>57200</v>
       </c>
       <c r="H41" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="I41" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G42" s="3">
         <v>2100</v>
@@ -1535,22 +1535,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>177000</v>
+        <v>199700</v>
       </c>
       <c r="E43" s="3">
-        <v>254200</v>
+        <v>259600</v>
       </c>
       <c r="F43" s="3">
-        <v>115700</v>
+        <v>118200</v>
       </c>
       <c r="G43" s="3">
-        <v>97900</v>
+        <v>100000</v>
       </c>
       <c r="H43" s="3">
-        <v>76200</v>
+        <v>77800</v>
       </c>
       <c r="I43" s="3">
-        <v>31400</v>
+        <v>32100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1562,22 +1562,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>186000</v>
+        <v>189900</v>
       </c>
       <c r="E44" s="3">
-        <v>136600</v>
+        <v>139400</v>
       </c>
       <c r="F44" s="3">
-        <v>74000</v>
+        <v>75600</v>
       </c>
       <c r="G44" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="H44" s="3">
-        <v>29400</v>
+        <v>30000</v>
       </c>
       <c r="I44" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>5200</v>
       </c>
       <c r="E45" s="3">
         <v>2200</v>
       </c>
       <c r="F45" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
         <v>3800</v>
@@ -1616,22 +1616,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>737600</v>
+        <v>753200</v>
       </c>
       <c r="E46" s="3">
-        <v>671100</v>
+        <v>685300</v>
       </c>
       <c r="F46" s="3">
-        <v>436600</v>
+        <v>445800</v>
       </c>
       <c r="G46" s="3">
-        <v>197900</v>
+        <v>202100</v>
       </c>
       <c r="H46" s="3">
-        <v>131400</v>
+        <v>134100</v>
       </c>
       <c r="I46" s="3">
-        <v>79400</v>
+        <v>81100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1643,19 +1643,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67800</v>
+        <v>69300</v>
       </c>
       <c r="E47" s="3">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="F47" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="G47" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="H47" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -1670,22 +1670,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="E48" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="F48" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H48" s="3">
         <v>1700</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="E49" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="F49" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="G49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -1778,19 +1778,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="E52" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="F52" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -1832,22 +1832,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>902000</v>
+        <v>921000</v>
       </c>
       <c r="E54" s="3">
-        <v>790600</v>
+        <v>807300</v>
       </c>
       <c r="F54" s="3">
-        <v>497800</v>
+        <v>508400</v>
       </c>
       <c r="G54" s="3">
-        <v>223900</v>
+        <v>228600</v>
       </c>
       <c r="H54" s="3">
-        <v>148600</v>
+        <v>151800</v>
       </c>
       <c r="I54" s="3">
-        <v>80800</v>
+        <v>82500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1885,22 +1885,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>299800</v>
+        <v>306200</v>
       </c>
       <c r="E57" s="3">
-        <v>307800</v>
+        <v>314300</v>
       </c>
       <c r="F57" s="3">
-        <v>164200</v>
+        <v>167700</v>
       </c>
       <c r="G57" s="3">
-        <v>109400</v>
+        <v>111700</v>
       </c>
       <c r="H57" s="3">
-        <v>83700</v>
+        <v>85400</v>
       </c>
       <c r="I57" s="3">
-        <v>39700</v>
+        <v>40600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1912,19 +1912,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>77100</v>
+        <v>78700</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G58" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -1939,22 +1939,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49300</v>
+        <v>50300</v>
       </c>
       <c r="E59" s="3">
-        <v>71000</v>
+        <v>72500</v>
       </c>
       <c r="F59" s="3">
-        <v>41900</v>
+        <v>42700</v>
       </c>
       <c r="G59" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="H59" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="I59" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -1966,22 +1966,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>426200</v>
+        <v>435200</v>
       </c>
       <c r="E60" s="3">
-        <v>379200</v>
+        <v>387200</v>
       </c>
       <c r="F60" s="3">
-        <v>212000</v>
+        <v>216500</v>
       </c>
       <c r="G60" s="3">
-        <v>134000</v>
+        <v>136900</v>
       </c>
       <c r="H60" s="3">
-        <v>96900</v>
+        <v>99000</v>
       </c>
       <c r="I60" s="3">
-        <v>42400</v>
+        <v>43300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49500</v>
+        <v>50500</v>
       </c>
       <c r="E62" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="F62" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
@@ -2128,22 +2128,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>484800</v>
+        <v>495100</v>
       </c>
       <c r="E66" s="3">
-        <v>408500</v>
+        <v>417200</v>
       </c>
       <c r="F66" s="3">
-        <v>221200</v>
+        <v>225800</v>
       </c>
       <c r="G66" s="3">
-        <v>136000</v>
+        <v>138900</v>
       </c>
       <c r="H66" s="3">
-        <v>96900</v>
+        <v>99000</v>
       </c>
       <c r="I66" s="3">
-        <v>42400</v>
+        <v>43300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2231,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>53400</v>
+        <v>54500</v>
       </c>
       <c r="H70" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="I70" s="3">
-        <v>41600</v>
+        <v>42500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2276,22 +2276,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>173200</v>
+        <v>176800</v>
       </c>
       <c r="E72" s="3">
-        <v>139100</v>
+        <v>142100</v>
       </c>
       <c r="F72" s="3">
-        <v>52000</v>
+        <v>53100</v>
       </c>
       <c r="G72" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="H72" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I72" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2384,22 +2384,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>417100</v>
+        <v>425900</v>
       </c>
       <c r="E76" s="3">
-        <v>382100</v>
+        <v>390100</v>
       </c>
       <c r="F76" s="3">
-        <v>276700</v>
+        <v>282500</v>
       </c>
       <c r="G76" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="H76" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I76" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2470,22 +2470,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="E81" s="3">
-        <v>87500</v>
+        <v>89400</v>
       </c>
       <c r="F81" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G81" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H81" s="3">
         <v>-1900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2509,14 +2509,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -2671,23 +2671,23 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>24500</v>
       </c>
       <c r="E89" s="3">
-        <v>65400</v>
+        <v>66800</v>
       </c>
       <c r="F89" s="3">
-        <v>108100</v>
+        <v>110400</v>
       </c>
       <c r="G89" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="H89" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2711,14 +2711,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-13000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
         <v>-3300</v>
@@ -2727,7 +2727,7 @@
         <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2792,20 +2792,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-32300</v>
       </c>
       <c r="E94" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="F94" s="3">
-        <v>-49600</v>
+        <v>-50700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H94" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
@@ -2940,23 +2940,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>88100</v>
       </c>
       <c r="E100" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F100" s="3">
-        <v>97700</v>
+        <v>99700</v>
       </c>
       <c r="G100" s="3">
         <v>3100</v>
       </c>
       <c r="H100" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I100" s="3">
-        <v>32700</v>
+        <v>33400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -2967,14 +2967,14 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-6800</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
@@ -2994,23 +2994,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>73600</v>
       </c>
       <c r="E102" s="3">
-        <v>53800</v>
+        <v>54900</v>
       </c>
       <c r="F102" s="3">
-        <v>165400</v>
+        <v>168800</v>
       </c>
       <c r="G102" s="3">
-        <v>33100</v>
+        <v>33800</v>
       </c>
       <c r="H102" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="I102" s="3">
-        <v>32500</v>
+        <v>33200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -712,22 +712,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1003700</v>
+        <v>990600</v>
       </c>
       <c r="E8" s="3">
-        <v>906800</v>
+        <v>895000</v>
       </c>
       <c r="F8" s="3">
-        <v>568700</v>
+        <v>561300</v>
       </c>
       <c r="G8" s="3">
-        <v>319600</v>
+        <v>315500</v>
       </c>
       <c r="H8" s="3">
-        <v>242800</v>
+        <v>239700</v>
       </c>
       <c r="I8" s="3">
-        <v>139900</v>
+        <v>138000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,22 +739,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>795800</v>
+        <v>785400</v>
       </c>
       <c r="E9" s="3">
-        <v>677800</v>
+        <v>669000</v>
       </c>
       <c r="F9" s="3">
-        <v>422100</v>
+        <v>416700</v>
       </c>
       <c r="G9" s="3">
-        <v>242500</v>
+        <v>239300</v>
       </c>
       <c r="H9" s="3">
-        <v>199700</v>
+        <v>197100</v>
       </c>
       <c r="I9" s="3">
-        <v>122600</v>
+        <v>121000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -766,22 +766,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>207900</v>
+        <v>205200</v>
       </c>
       <c r="E10" s="3">
-        <v>229000</v>
+        <v>226000</v>
       </c>
       <c r="F10" s="3">
-        <v>146600</v>
+        <v>144700</v>
       </c>
       <c r="G10" s="3">
-        <v>77200</v>
+        <v>76200</v>
       </c>
       <c r="H10" s="3">
-        <v>43100</v>
+        <v>42500</v>
       </c>
       <c r="I10" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>83900</v>
+        <v>82800</v>
       </c>
       <c r="E12" s="3">
-        <v>67200</v>
+        <v>66300</v>
       </c>
       <c r="F12" s="3">
-        <v>41100</v>
+        <v>40500</v>
       </c>
       <c r="G12" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="H12" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="I12" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -924,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>967700</v>
+        <v>955100</v>
       </c>
       <c r="E17" s="3">
-        <v>812600</v>
+        <v>802000</v>
       </c>
       <c r="F17" s="3">
-        <v>512800</v>
+        <v>506200</v>
       </c>
       <c r="G17" s="3">
-        <v>291300</v>
+        <v>287500</v>
       </c>
       <c r="H17" s="3">
-        <v>240700</v>
+        <v>237600</v>
       </c>
       <c r="I17" s="3">
-        <v>146100</v>
+        <v>144200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -951,22 +951,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36000</v>
+        <v>35500</v>
       </c>
       <c r="E18" s="3">
-        <v>94200</v>
+        <v>93000</v>
       </c>
       <c r="F18" s="3">
-        <v>55900</v>
+        <v>55100</v>
       </c>
       <c r="G18" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="H18" s="3">
         <v>2100</v>
       </c>
       <c r="I18" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="3">
         <v>4400</v>
@@ -1018,22 +1018,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45700</v>
+        <v>45100</v>
       </c>
       <c r="E21" s="3">
-        <v>104500</v>
+        <v>103100</v>
       </c>
       <c r="F21" s="3">
-        <v>61300</v>
+        <v>60500</v>
       </c>
       <c r="G21" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="H21" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I21" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1072,19 +1072,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41400</v>
+        <v>40900</v>
       </c>
       <c r="E23" s="3">
-        <v>101800</v>
+        <v>100500</v>
       </c>
       <c r="F23" s="3">
-        <v>60300</v>
+        <v>59500</v>
       </c>
       <c r="G23" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="H23" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I23" s="3">
         <v>-6000</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E24" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
@@ -1153,22 +1153,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36600</v>
+        <v>36100</v>
       </c>
       <c r="E26" s="3">
-        <v>89600</v>
+        <v>88500</v>
       </c>
       <c r="F26" s="3">
-        <v>52200</v>
+        <v>51500</v>
       </c>
       <c r="G26" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="H26" s="3">
         <v>4000</v>
       </c>
       <c r="I26" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1180,22 +1180,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="E27" s="3">
-        <v>89400</v>
+        <v>88200</v>
       </c>
       <c r="F27" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G27" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H27" s="3">
         <v>-1900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="F32" s="3">
         <v>-4400</v>
@@ -1342,22 +1342,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="E33" s="3">
-        <v>89400</v>
+        <v>88200</v>
       </c>
       <c r="F33" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G33" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H33" s="3">
         <v>-1900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="E35" s="3">
-        <v>89400</v>
+        <v>88200</v>
       </c>
       <c r="F35" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G35" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H35" s="3">
         <v>-1900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1481,22 +1481,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>355400</v>
+        <v>350800</v>
       </c>
       <c r="E41" s="3">
-        <v>281300</v>
+        <v>277600</v>
       </c>
       <c r="F41" s="3">
-        <v>240100</v>
+        <v>236900</v>
       </c>
       <c r="G41" s="3">
-        <v>57200</v>
+        <v>56400</v>
       </c>
       <c r="H41" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="I41" s="3">
-        <v>34300</v>
+        <v>33900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F42" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G42" s="3">
         <v>2100</v>
@@ -1535,22 +1535,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199700</v>
+        <v>197100</v>
       </c>
       <c r="E43" s="3">
-        <v>259600</v>
+        <v>256200</v>
       </c>
       <c r="F43" s="3">
-        <v>118200</v>
+        <v>116600</v>
       </c>
       <c r="G43" s="3">
-        <v>100000</v>
+        <v>98700</v>
       </c>
       <c r="H43" s="3">
-        <v>77800</v>
+        <v>76800</v>
       </c>
       <c r="I43" s="3">
-        <v>32100</v>
+        <v>31700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1562,22 +1562,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>189900</v>
+        <v>187500</v>
       </c>
       <c r="E44" s="3">
-        <v>139400</v>
+        <v>137600</v>
       </c>
       <c r="F44" s="3">
-        <v>75600</v>
+        <v>74600</v>
       </c>
       <c r="G44" s="3">
-        <v>39000</v>
+        <v>38500</v>
       </c>
       <c r="H44" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="I44" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>2200</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G45" s="3">
         <v>3800</v>
@@ -1616,22 +1616,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>753200</v>
+        <v>743400</v>
       </c>
       <c r="E46" s="3">
-        <v>685300</v>
+        <v>676300</v>
       </c>
       <c r="F46" s="3">
-        <v>445800</v>
+        <v>440000</v>
       </c>
       <c r="G46" s="3">
-        <v>202100</v>
+        <v>199500</v>
       </c>
       <c r="H46" s="3">
-        <v>134100</v>
+        <v>132400</v>
       </c>
       <c r="I46" s="3">
-        <v>81100</v>
+        <v>80000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1643,19 +1643,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="E47" s="3">
-        <v>63400</v>
+        <v>62500</v>
       </c>
       <c r="F47" s="3">
-        <v>32600</v>
+        <v>32200</v>
       </c>
       <c r="G47" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="H47" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43000</v>
+        <v>42500</v>
       </c>
       <c r="E48" s="3">
-        <v>27000</v>
+        <v>26600</v>
       </c>
       <c r="F48" s="3">
         <v>6200</v>
       </c>
       <c r="G48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H48" s="3">
         <v>1700</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="E49" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="F49" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -1778,19 +1778,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="E52" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="F52" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H52" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -1832,22 +1832,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>921000</v>
+        <v>909100</v>
       </c>
       <c r="E54" s="3">
-        <v>807300</v>
+        <v>796800</v>
       </c>
       <c r="F54" s="3">
-        <v>508400</v>
+        <v>501700</v>
       </c>
       <c r="G54" s="3">
-        <v>228600</v>
+        <v>225700</v>
       </c>
       <c r="H54" s="3">
-        <v>151800</v>
+        <v>149800</v>
       </c>
       <c r="I54" s="3">
-        <v>82500</v>
+        <v>81500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1885,22 +1885,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>306200</v>
+        <v>302200</v>
       </c>
       <c r="E57" s="3">
-        <v>314300</v>
+        <v>310200</v>
       </c>
       <c r="F57" s="3">
-        <v>167700</v>
+        <v>165500</v>
       </c>
       <c r="G57" s="3">
-        <v>111700</v>
+        <v>110200</v>
       </c>
       <c r="H57" s="3">
-        <v>85400</v>
+        <v>84300</v>
       </c>
       <c r="I57" s="3">
-        <v>40600</v>
+        <v>40000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1912,19 +1912,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>78700</v>
+        <v>77700</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H58" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -1939,22 +1939,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50300</v>
+        <v>49700</v>
       </c>
       <c r="E59" s="3">
-        <v>72500</v>
+        <v>71600</v>
       </c>
       <c r="F59" s="3">
-        <v>42700</v>
+        <v>42200</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="H59" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -1966,22 +1966,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>435200</v>
+        <v>429600</v>
       </c>
       <c r="E60" s="3">
-        <v>387200</v>
+        <v>382100</v>
       </c>
       <c r="F60" s="3">
-        <v>216500</v>
+        <v>213700</v>
       </c>
       <c r="G60" s="3">
-        <v>136900</v>
+        <v>135100</v>
       </c>
       <c r="H60" s="3">
-        <v>99000</v>
+        <v>97700</v>
       </c>
       <c r="I60" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50500</v>
+        <v>49900</v>
       </c>
       <c r="E62" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="F62" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
@@ -2128,22 +2128,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>495100</v>
+        <v>488600</v>
       </c>
       <c r="E66" s="3">
-        <v>417200</v>
+        <v>411700</v>
       </c>
       <c r="F66" s="3">
-        <v>225800</v>
+        <v>222900</v>
       </c>
       <c r="G66" s="3">
-        <v>138900</v>
+        <v>137100</v>
       </c>
       <c r="H66" s="3">
-        <v>99000</v>
+        <v>97700</v>
       </c>
       <c r="I66" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2231,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>54500</v>
+        <v>53800</v>
       </c>
       <c r="H70" s="3">
-        <v>48100</v>
+        <v>47500</v>
       </c>
       <c r="I70" s="3">
-        <v>42500</v>
+        <v>41900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2276,22 +2276,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>176800</v>
+        <v>174500</v>
       </c>
       <c r="E72" s="3">
-        <v>142100</v>
+        <v>140200</v>
       </c>
       <c r="F72" s="3">
-        <v>53100</v>
+        <v>52400</v>
       </c>
       <c r="G72" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="H72" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="I72" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2384,22 +2384,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>425900</v>
+        <v>420400</v>
       </c>
       <c r="E76" s="3">
-        <v>390100</v>
+        <v>385100</v>
       </c>
       <c r="F76" s="3">
-        <v>282500</v>
+        <v>278800</v>
       </c>
       <c r="G76" s="3">
-        <v>35300</v>
+        <v>34800</v>
       </c>
       <c r="H76" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I76" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2470,22 +2470,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="E81" s="3">
-        <v>89400</v>
+        <v>88200</v>
       </c>
       <c r="F81" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G81" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H81" s="3">
         <v>-1900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2672,22 +2672,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="E89" s="3">
-        <v>66800</v>
+        <v>65900</v>
       </c>
       <c r="F89" s="3">
-        <v>110400</v>
+        <v>109000</v>
       </c>
       <c r="G89" s="3">
-        <v>37200</v>
+        <v>36700</v>
       </c>
       <c r="H89" s="3">
         <v>2700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="E91" s="3">
         <v>-5300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G91" s="3">
         <v>-3300</v>
@@ -2727,7 +2727,7 @@
         <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2793,19 +2793,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32300</v>
+        <v>-31900</v>
       </c>
       <c r="E94" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="F94" s="3">
-        <v>-50700</v>
+        <v>-50000</v>
       </c>
       <c r="G94" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="H94" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
@@ -2941,22 +2941,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>88100</v>
+        <v>86900</v>
       </c>
       <c r="E100" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F100" s="3">
-        <v>99700</v>
+        <v>98400</v>
       </c>
       <c r="G100" s="3">
         <v>3100</v>
       </c>
       <c r="H100" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I100" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
@@ -2995,22 +2995,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>73600</v>
+        <v>72600</v>
       </c>
       <c r="E102" s="3">
-        <v>54900</v>
+        <v>54200</v>
       </c>
       <c r="F102" s="3">
-        <v>168800</v>
+        <v>166700</v>
       </c>
       <c r="G102" s="3">
-        <v>33800</v>
+        <v>33300</v>
       </c>
       <c r="H102" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I102" s="3">
-        <v>33200</v>
+        <v>32700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -712,22 +712,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>990600</v>
+        <v>1007200</v>
       </c>
       <c r="E8" s="3">
-        <v>895000</v>
+        <v>910000</v>
       </c>
       <c r="F8" s="3">
-        <v>561300</v>
+        <v>570700</v>
       </c>
       <c r="G8" s="3">
-        <v>315500</v>
+        <v>320800</v>
       </c>
       <c r="H8" s="3">
-        <v>239700</v>
+        <v>243700</v>
       </c>
       <c r="I8" s="3">
-        <v>138000</v>
+        <v>140300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,22 +739,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>785400</v>
+        <v>798600</v>
       </c>
       <c r="E9" s="3">
-        <v>669000</v>
+        <v>680200</v>
       </c>
       <c r="F9" s="3">
-        <v>416700</v>
+        <v>423600</v>
       </c>
       <c r="G9" s="3">
-        <v>239300</v>
+        <v>243300</v>
       </c>
       <c r="H9" s="3">
-        <v>197100</v>
+        <v>200400</v>
       </c>
       <c r="I9" s="3">
-        <v>121000</v>
+        <v>123000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -766,22 +766,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>205200</v>
+        <v>208600</v>
       </c>
       <c r="E10" s="3">
-        <v>226000</v>
+        <v>229800</v>
       </c>
       <c r="F10" s="3">
-        <v>144700</v>
+        <v>147100</v>
       </c>
       <c r="G10" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="H10" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="I10" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>82800</v>
+        <v>84200</v>
       </c>
       <c r="E12" s="3">
-        <v>66300</v>
+        <v>67400</v>
       </c>
       <c r="F12" s="3">
-        <v>40500</v>
+        <v>41200</v>
       </c>
       <c r="G12" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="H12" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="I12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -924,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>955100</v>
+        <v>971100</v>
       </c>
       <c r="E17" s="3">
-        <v>802000</v>
+        <v>815400</v>
       </c>
       <c r="F17" s="3">
-        <v>506200</v>
+        <v>514600</v>
       </c>
       <c r="G17" s="3">
-        <v>287500</v>
+        <v>292300</v>
       </c>
       <c r="H17" s="3">
-        <v>237600</v>
+        <v>241600</v>
       </c>
       <c r="I17" s="3">
-        <v>144200</v>
+        <v>146600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -951,22 +951,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="E18" s="3">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="F18" s="3">
-        <v>55100</v>
+        <v>56100</v>
       </c>
       <c r="G18" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="H18" s="3">
         <v>2100</v>
       </c>
       <c r="I18" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H20" s="3">
         <v>2400</v>
@@ -1018,22 +1018,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45100</v>
+        <v>45800</v>
       </c>
       <c r="E21" s="3">
-        <v>103100</v>
+        <v>104800</v>
       </c>
       <c r="F21" s="3">
-        <v>60500</v>
+        <v>61500</v>
       </c>
       <c r="G21" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="H21" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I21" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1072,22 +1072,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E23" s="3">
-        <v>100500</v>
+        <v>102100</v>
       </c>
       <c r="F23" s="3">
-        <v>59500</v>
+        <v>60500</v>
       </c>
       <c r="G23" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="H23" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I23" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="F24" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
@@ -1153,22 +1153,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36100</v>
+        <v>36700</v>
       </c>
       <c r="E26" s="3">
-        <v>88500</v>
+        <v>89900</v>
       </c>
       <c r="F26" s="3">
-        <v>51500</v>
+        <v>52400</v>
       </c>
       <c r="G26" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="H26" s="3">
         <v>4000</v>
       </c>
       <c r="I26" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1180,22 +1180,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="E27" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="F27" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="G27" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H27" s="3">
         <v>-1900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H32" s="3">
         <v>-2400</v>
@@ -1342,22 +1342,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="E33" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="F33" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="G33" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H33" s="3">
         <v>-1900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="E35" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="F35" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="G35" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H35" s="3">
         <v>-1900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1481,22 +1481,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>350800</v>
+        <v>356700</v>
       </c>
       <c r="E41" s="3">
-        <v>277600</v>
+        <v>282300</v>
       </c>
       <c r="F41" s="3">
-        <v>236900</v>
+        <v>240900</v>
       </c>
       <c r="G41" s="3">
-        <v>56400</v>
+        <v>57400</v>
       </c>
       <c r="H41" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="I41" s="3">
-        <v>33900</v>
+        <v>34400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G42" s="3">
         <v>2100</v>
@@ -1535,22 +1535,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>197100</v>
+        <v>200400</v>
       </c>
       <c r="E43" s="3">
-        <v>256200</v>
+        <v>260500</v>
       </c>
       <c r="F43" s="3">
-        <v>116600</v>
+        <v>118600</v>
       </c>
       <c r="G43" s="3">
-        <v>98700</v>
+        <v>100400</v>
       </c>
       <c r="H43" s="3">
-        <v>76800</v>
+        <v>78100</v>
       </c>
       <c r="I43" s="3">
-        <v>31700</v>
+        <v>32200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1562,22 +1562,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>187500</v>
+        <v>190600</v>
       </c>
       <c r="E44" s="3">
-        <v>137600</v>
+        <v>139900</v>
       </c>
       <c r="F44" s="3">
-        <v>74600</v>
+        <v>75900</v>
       </c>
       <c r="G44" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="H44" s="3">
-        <v>29600</v>
+        <v>30100</v>
       </c>
       <c r="I44" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
         <v>3800</v>
@@ -1616,22 +1616,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>743400</v>
+        <v>755900</v>
       </c>
       <c r="E46" s="3">
-        <v>676300</v>
+        <v>687700</v>
       </c>
       <c r="F46" s="3">
-        <v>440000</v>
+        <v>447400</v>
       </c>
       <c r="G46" s="3">
-        <v>199500</v>
+        <v>202800</v>
       </c>
       <c r="H46" s="3">
-        <v>132400</v>
+        <v>134600</v>
       </c>
       <c r="I46" s="3">
-        <v>80000</v>
+        <v>81400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1643,19 +1643,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68400</v>
+        <v>69500</v>
       </c>
       <c r="E47" s="3">
-        <v>62500</v>
+        <v>63600</v>
       </c>
       <c r="F47" s="3">
-        <v>32200</v>
+        <v>32700</v>
       </c>
       <c r="G47" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="H47" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="E48" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="F48" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H48" s="3">
         <v>1700</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32000</v>
+        <v>32500</v>
       </c>
       <c r="E49" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="F49" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -1778,19 +1778,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="E52" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="F52" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -1832,22 +1832,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>909100</v>
+        <v>924300</v>
       </c>
       <c r="E54" s="3">
-        <v>796800</v>
+        <v>810200</v>
       </c>
       <c r="F54" s="3">
-        <v>501700</v>
+        <v>510100</v>
       </c>
       <c r="G54" s="3">
-        <v>225700</v>
+        <v>229400</v>
       </c>
       <c r="H54" s="3">
-        <v>149800</v>
+        <v>152300</v>
       </c>
       <c r="I54" s="3">
-        <v>81500</v>
+        <v>82800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1885,22 +1885,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>302200</v>
+        <v>307300</v>
       </c>
       <c r="E57" s="3">
-        <v>310200</v>
+        <v>315400</v>
       </c>
       <c r="F57" s="3">
-        <v>165500</v>
+        <v>168300</v>
       </c>
       <c r="G57" s="3">
-        <v>110200</v>
+        <v>112100</v>
       </c>
       <c r="H57" s="3">
-        <v>84300</v>
+        <v>85700</v>
       </c>
       <c r="I57" s="3">
-        <v>40000</v>
+        <v>40700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1912,19 +1912,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>77700</v>
+        <v>79000</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G58" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -1939,22 +1939,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49700</v>
+        <v>50500</v>
       </c>
       <c r="E59" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="F59" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="G59" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="H59" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="I59" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -1966,22 +1966,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>429600</v>
+        <v>436800</v>
       </c>
       <c r="E60" s="3">
-        <v>382100</v>
+        <v>388600</v>
       </c>
       <c r="F60" s="3">
-        <v>213700</v>
+        <v>217300</v>
       </c>
       <c r="G60" s="3">
-        <v>135100</v>
+        <v>137300</v>
       </c>
       <c r="H60" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="I60" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49900</v>
+        <v>50700</v>
       </c>
       <c r="E62" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="F62" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
@@ -2128,22 +2128,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>488600</v>
+        <v>496800</v>
       </c>
       <c r="E66" s="3">
-        <v>411700</v>
+        <v>418600</v>
       </c>
       <c r="F66" s="3">
-        <v>222900</v>
+        <v>226600</v>
       </c>
       <c r="G66" s="3">
-        <v>137100</v>
+        <v>139400</v>
       </c>
       <c r="H66" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="I66" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2231,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="H70" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="I70" s="3">
-        <v>41900</v>
+        <v>42600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2276,22 +2276,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>174500</v>
+        <v>177400</v>
       </c>
       <c r="E72" s="3">
-        <v>140200</v>
+        <v>142600</v>
       </c>
       <c r="F72" s="3">
-        <v>52400</v>
+        <v>53200</v>
       </c>
       <c r="G72" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="H72" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I72" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2384,22 +2384,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>420400</v>
+        <v>427400</v>
       </c>
       <c r="E76" s="3">
-        <v>385100</v>
+        <v>391500</v>
       </c>
       <c r="F76" s="3">
-        <v>278800</v>
+        <v>283500</v>
       </c>
       <c r="G76" s="3">
-        <v>34800</v>
+        <v>35400</v>
       </c>
       <c r="H76" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I76" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2470,22 +2470,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="E81" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="F81" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="G81" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H81" s="3">
         <v>-1900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2672,22 +2672,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="E89" s="3">
-        <v>65900</v>
+        <v>67000</v>
       </c>
       <c r="F89" s="3">
-        <v>109000</v>
+        <v>110800</v>
       </c>
       <c r="G89" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="H89" s="3">
         <v>2700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2712,22 +2712,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H91" s="3">
         <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2793,19 +2793,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31900</v>
+        <v>-32400</v>
       </c>
       <c r="E94" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="F94" s="3">
-        <v>-50000</v>
+        <v>-50900</v>
       </c>
       <c r="G94" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H94" s="3">
-        <v>-15300</v>
+        <v>-15600</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
@@ -2941,22 +2941,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>86900</v>
+        <v>88400</v>
       </c>
       <c r="E100" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F100" s="3">
-        <v>98400</v>
+        <v>100100</v>
       </c>
       <c r="G100" s="3">
         <v>3100</v>
       </c>
       <c r="H100" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I100" s="3">
-        <v>33000</v>
+        <v>33500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
@@ -2995,22 +2995,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72600</v>
+        <v>73900</v>
       </c>
       <c r="E102" s="3">
-        <v>54200</v>
+        <v>55100</v>
       </c>
       <c r="F102" s="3">
-        <v>166700</v>
+        <v>169400</v>
       </c>
       <c r="G102" s="3">
+        <v>33900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I102" s="3">
         <v>33300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>32700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -712,22 +712,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1007200</v>
+        <v>1014900</v>
       </c>
       <c r="E8" s="3">
-        <v>910000</v>
+        <v>916900</v>
       </c>
       <c r="F8" s="3">
-        <v>570700</v>
+        <v>575100</v>
       </c>
       <c r="G8" s="3">
-        <v>320800</v>
+        <v>323200</v>
       </c>
       <c r="H8" s="3">
-        <v>243700</v>
+        <v>245500</v>
       </c>
       <c r="I8" s="3">
-        <v>140300</v>
+        <v>141400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,22 +739,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>798600</v>
+        <v>804700</v>
       </c>
       <c r="E9" s="3">
-        <v>680200</v>
+        <v>685400</v>
       </c>
       <c r="F9" s="3">
-        <v>423600</v>
+        <v>426900</v>
       </c>
       <c r="G9" s="3">
-        <v>243300</v>
+        <v>245200</v>
       </c>
       <c r="H9" s="3">
-        <v>200400</v>
+        <v>202000</v>
       </c>
       <c r="I9" s="3">
-        <v>123000</v>
+        <v>124000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -766,22 +766,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>208600</v>
+        <v>210200</v>
       </c>
       <c r="E10" s="3">
-        <v>229800</v>
+        <v>231600</v>
       </c>
       <c r="F10" s="3">
-        <v>147100</v>
+        <v>148200</v>
       </c>
       <c r="G10" s="3">
-        <v>77500</v>
+        <v>78000</v>
       </c>
       <c r="H10" s="3">
-        <v>43200</v>
+        <v>43600</v>
       </c>
       <c r="I10" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>84200</v>
+        <v>84900</v>
       </c>
       <c r="E12" s="3">
-        <v>67400</v>
+        <v>68000</v>
       </c>
       <c r="F12" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="G12" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="H12" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="I12" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -924,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>971100</v>
+        <v>978500</v>
       </c>
       <c r="E17" s="3">
-        <v>815400</v>
+        <v>821700</v>
       </c>
       <c r="F17" s="3">
-        <v>514600</v>
+        <v>518600</v>
       </c>
       <c r="G17" s="3">
-        <v>292300</v>
+        <v>294500</v>
       </c>
       <c r="H17" s="3">
-        <v>241600</v>
+        <v>243400</v>
       </c>
       <c r="I17" s="3">
-        <v>146600</v>
+        <v>147800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36100</v>
+        <v>36400</v>
       </c>
       <c r="E18" s="3">
-        <v>94500</v>
+        <v>95300</v>
       </c>
       <c r="F18" s="3">
-        <v>56100</v>
+        <v>56500</v>
       </c>
       <c r="G18" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="H18" s="3">
         <v>2100</v>
@@ -1018,22 +1018,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45800</v>
+        <v>46200</v>
       </c>
       <c r="E21" s="3">
-        <v>104800</v>
+        <v>105600</v>
       </c>
       <c r="F21" s="3">
-        <v>61500</v>
+        <v>62000</v>
       </c>
       <c r="G21" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="H21" s="3">
         <v>4900</v>
       </c>
       <c r="I21" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1072,19 +1072,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="E23" s="3">
-        <v>102100</v>
+        <v>102900</v>
       </c>
       <c r="F23" s="3">
-        <v>60500</v>
+        <v>61000</v>
       </c>
       <c r="G23" s="3">
-        <v>30000</v>
+        <v>30300</v>
       </c>
       <c r="H23" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I23" s="3">
         <v>-6100</v>
@@ -1102,10 +1102,10 @@
         <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G24" s="3">
         <v>3700</v>
@@ -1153,22 +1153,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="E26" s="3">
-        <v>89900</v>
+        <v>90600</v>
       </c>
       <c r="F26" s="3">
-        <v>52400</v>
+        <v>52800</v>
       </c>
       <c r="G26" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="H26" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I26" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="E27" s="3">
-        <v>89700</v>
+        <v>90400</v>
       </c>
       <c r="F27" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G27" s="3">
         <v>7900</v>
@@ -1195,7 +1195,7 @@
         <v>-1900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="E33" s="3">
-        <v>89700</v>
+        <v>90400</v>
       </c>
       <c r="F33" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G33" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H33" s="3">
         <v>-1900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="E35" s="3">
-        <v>89700</v>
+        <v>90400</v>
       </c>
       <c r="F35" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G35" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H35" s="3">
         <v>-1900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1481,22 +1481,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>356700</v>
+        <v>359400</v>
       </c>
       <c r="E41" s="3">
-        <v>282300</v>
+        <v>284500</v>
       </c>
       <c r="F41" s="3">
-        <v>240900</v>
+        <v>242800</v>
       </c>
       <c r="G41" s="3">
-        <v>57400</v>
+        <v>57800</v>
       </c>
       <c r="H41" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="I41" s="3">
-        <v>34400</v>
+        <v>34700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1514,13 +1514,13 @@
         <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G42" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H42" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1535,22 +1535,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200400</v>
+        <v>201900</v>
       </c>
       <c r="E43" s="3">
-        <v>260500</v>
+        <v>262500</v>
       </c>
       <c r="F43" s="3">
-        <v>118600</v>
+        <v>119500</v>
       </c>
       <c r="G43" s="3">
-        <v>100400</v>
+        <v>101100</v>
       </c>
       <c r="H43" s="3">
-        <v>78100</v>
+        <v>78700</v>
       </c>
       <c r="I43" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1562,22 +1562,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>190600</v>
+        <v>192100</v>
       </c>
       <c r="E44" s="3">
-        <v>139900</v>
+        <v>141000</v>
       </c>
       <c r="F44" s="3">
-        <v>75900</v>
+        <v>76500</v>
       </c>
       <c r="G44" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="H44" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="I44" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1598,7 +1598,7 @@
         <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H45" s="3">
         <v>1000</v>
@@ -1616,22 +1616,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>755900</v>
+        <v>761600</v>
       </c>
       <c r="E46" s="3">
-        <v>687700</v>
+        <v>693000</v>
       </c>
       <c r="F46" s="3">
-        <v>447400</v>
+        <v>450800</v>
       </c>
       <c r="G46" s="3">
-        <v>202800</v>
+        <v>204400</v>
       </c>
       <c r="H46" s="3">
-        <v>134600</v>
+        <v>135600</v>
       </c>
       <c r="I46" s="3">
-        <v>81400</v>
+        <v>82000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1643,19 +1643,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="E47" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="F47" s="3">
-        <v>32700</v>
+        <v>33000</v>
       </c>
       <c r="G47" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="H47" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43200</v>
+        <v>43500</v>
       </c>
       <c r="E48" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="F48" s="3">
         <v>6300</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="E49" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F49" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G49" s="3">
         <v>1800</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="E52" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="F52" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H52" s="3">
         <v>3600</v>
@@ -1832,22 +1832,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>924300</v>
+        <v>931400</v>
       </c>
       <c r="E54" s="3">
-        <v>810200</v>
+        <v>816400</v>
       </c>
       <c r="F54" s="3">
-        <v>510100</v>
+        <v>514100</v>
       </c>
       <c r="G54" s="3">
-        <v>229400</v>
+        <v>231200</v>
       </c>
       <c r="H54" s="3">
-        <v>152300</v>
+        <v>153500</v>
       </c>
       <c r="I54" s="3">
-        <v>82800</v>
+        <v>83500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1885,22 +1885,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>307300</v>
+        <v>309600</v>
       </c>
       <c r="E57" s="3">
-        <v>315400</v>
+        <v>317800</v>
       </c>
       <c r="F57" s="3">
-        <v>168300</v>
+        <v>169600</v>
       </c>
       <c r="G57" s="3">
-        <v>112100</v>
+        <v>112900</v>
       </c>
       <c r="H57" s="3">
-        <v>85700</v>
+        <v>86400</v>
       </c>
       <c r="I57" s="3">
-        <v>40700</v>
+        <v>41000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -1921,7 +1921,7 @@
         <v>6100</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
         <v>2000</v>
@@ -1939,19 +1939,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50500</v>
+        <v>50900</v>
       </c>
       <c r="E59" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="F59" s="3">
-        <v>42900</v>
+        <v>43200</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="H59" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I59" s="3">
         <v>2800</v>
@@ -1966,22 +1966,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>436800</v>
+        <v>440100</v>
       </c>
       <c r="E60" s="3">
-        <v>388600</v>
+        <v>391500</v>
       </c>
       <c r="F60" s="3">
-        <v>217300</v>
+        <v>218900</v>
       </c>
       <c r="G60" s="3">
-        <v>137300</v>
+        <v>138400</v>
       </c>
       <c r="H60" s="3">
-        <v>99300</v>
+        <v>100100</v>
       </c>
       <c r="I60" s="3">
-        <v>43500</v>
+        <v>43800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="E62" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="F62" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="G62" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>496800</v>
+        <v>500600</v>
       </c>
       <c r="E66" s="3">
-        <v>418600</v>
+        <v>421800</v>
       </c>
       <c r="F66" s="3">
-        <v>226600</v>
+        <v>228400</v>
       </c>
       <c r="G66" s="3">
-        <v>139400</v>
+        <v>140400</v>
       </c>
       <c r="H66" s="3">
-        <v>99300</v>
+        <v>100100</v>
       </c>
       <c r="I66" s="3">
-        <v>43500</v>
+        <v>43800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2231,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>54700</v>
+        <v>55200</v>
       </c>
       <c r="H70" s="3">
-        <v>48300</v>
+        <v>48600</v>
       </c>
       <c r="I70" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2276,19 +2276,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>177400</v>
+        <v>178800</v>
       </c>
       <c r="E72" s="3">
-        <v>142600</v>
+        <v>143700</v>
       </c>
       <c r="F72" s="3">
-        <v>53200</v>
+        <v>53600</v>
       </c>
       <c r="G72" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="H72" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I72" s="3">
         <v>-9500</v>
@@ -2384,22 +2384,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>427400</v>
+        <v>430700</v>
       </c>
       <c r="E76" s="3">
-        <v>391500</v>
+        <v>394500</v>
       </c>
       <c r="F76" s="3">
-        <v>283500</v>
+        <v>285700</v>
       </c>
       <c r="G76" s="3">
-        <v>35400</v>
+        <v>35600</v>
       </c>
       <c r="H76" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I76" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2470,22 +2470,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="E81" s="3">
-        <v>89700</v>
+        <v>90400</v>
       </c>
       <c r="F81" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G81" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H81" s="3">
         <v>-1900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
         <v>2700</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="E89" s="3">
-        <v>67000</v>
+        <v>67500</v>
       </c>
       <c r="F89" s="3">
-        <v>110800</v>
+        <v>111600</v>
       </c>
       <c r="G89" s="3">
-        <v>37300</v>
+        <v>37600</v>
       </c>
       <c r="H89" s="3">
         <v>2700</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E91" s="3">
         <v>-5400</v>
@@ -2793,19 +2793,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32400</v>
+        <v>-32600</v>
       </c>
       <c r="E94" s="3">
-        <v>-17600</v>
+        <v>-17800</v>
       </c>
       <c r="F94" s="3">
-        <v>-50900</v>
+        <v>-51200</v>
       </c>
       <c r="G94" s="3">
         <v>-6100</v>
       </c>
       <c r="H94" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
@@ -2941,22 +2941,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>88400</v>
+        <v>89100</v>
       </c>
       <c r="E100" s="3">
         <v>4000</v>
       </c>
       <c r="F100" s="3">
-        <v>100100</v>
+        <v>100800</v>
       </c>
       <c r="G100" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H100" s="3">
         <v>1600</v>
       </c>
       <c r="I100" s="3">
-        <v>33500</v>
+        <v>33800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -2974,7 +2974,7 @@
         <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
@@ -2995,22 +2995,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>73900</v>
+        <v>74400</v>
       </c>
       <c r="E102" s="3">
-        <v>55100</v>
+        <v>55600</v>
       </c>
       <c r="F102" s="3">
-        <v>169400</v>
+        <v>170700</v>
       </c>
       <c r="G102" s="3">
-        <v>33900</v>
+        <v>34100</v>
       </c>
       <c r="H102" s="3">
         <v>-10500</v>
       </c>
       <c r="I102" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>ZEPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,142 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1014900</v>
+        <v>921000</v>
       </c>
       <c r="E8" s="3">
-        <v>916900</v>
+        <v>948000</v>
       </c>
       <c r="F8" s="3">
-        <v>575100</v>
+        <v>856500</v>
       </c>
       <c r="G8" s="3">
-        <v>323200</v>
+        <v>537200</v>
       </c>
       <c r="H8" s="3">
-        <v>245500</v>
+        <v>301900</v>
       </c>
       <c r="I8" s="3">
-        <v>141400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>229400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>804700</v>
+        <v>728600</v>
       </c>
       <c r="E9" s="3">
-        <v>685400</v>
+        <v>751600</v>
       </c>
       <c r="F9" s="3">
-        <v>426900</v>
+        <v>640200</v>
       </c>
       <c r="G9" s="3">
-        <v>245200</v>
+        <v>398700</v>
       </c>
       <c r="H9" s="3">
-        <v>202000</v>
+        <v>229000</v>
       </c>
       <c r="I9" s="3">
-        <v>124000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>188700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>210200</v>
+        <v>192400</v>
       </c>
       <c r="E10" s="3">
-        <v>231600</v>
+        <v>196400</v>
       </c>
       <c r="F10" s="3">
-        <v>148200</v>
+        <v>216300</v>
       </c>
       <c r="G10" s="3">
-        <v>78000</v>
+        <v>138400</v>
       </c>
       <c r="H10" s="3">
-        <v>43600</v>
+        <v>72900</v>
       </c>
       <c r="I10" s="3">
-        <v>17400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>40700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,35 +812,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>84900</v>
+        <v>75900</v>
       </c>
       <c r="E12" s="3">
-        <v>68000</v>
+        <v>79300</v>
       </c>
       <c r="F12" s="3">
-        <v>41500</v>
+        <v>63500</v>
       </c>
       <c r="G12" s="3">
-        <v>24300</v>
+        <v>38800</v>
       </c>
       <c r="H12" s="3">
-        <v>20900</v>
+        <v>22700</v>
       </c>
       <c r="I12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>1100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>978500</v>
+        <v>907200</v>
       </c>
       <c r="E17" s="3">
-        <v>821700</v>
+        <v>914000</v>
       </c>
       <c r="F17" s="3">
-        <v>518600</v>
+        <v>767500</v>
       </c>
       <c r="G17" s="3">
-        <v>294500</v>
+        <v>484400</v>
       </c>
       <c r="H17" s="3">
-        <v>243400</v>
+        <v>275100</v>
       </c>
       <c r="I17" s="3">
-        <v>147800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>227400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36400</v>
+        <v>13800</v>
       </c>
       <c r="E18" s="3">
-        <v>95300</v>
+        <v>34000</v>
       </c>
       <c r="F18" s="3">
-        <v>56500</v>
+        <v>89000</v>
       </c>
       <c r="G18" s="3">
-        <v>28700</v>
+        <v>52800</v>
       </c>
       <c r="H18" s="3">
-        <v>2100</v>
+        <v>26800</v>
       </c>
       <c r="I18" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,143 +1017,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="F20" s="3">
-        <v>4500</v>
+        <v>7100</v>
       </c>
       <c r="G20" s="3">
-        <v>1600</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46200</v>
+        <v>30100</v>
       </c>
       <c r="E21" s="3">
-        <v>105600</v>
+        <v>43200</v>
       </c>
       <c r="F21" s="3">
-        <v>62000</v>
+        <v>98700</v>
       </c>
       <c r="G21" s="3">
-        <v>30900</v>
+        <v>57900</v>
       </c>
       <c r="H21" s="3">
-        <v>4900</v>
+        <v>28800</v>
       </c>
       <c r="I21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+        <v>4600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41900</v>
+        <v>15700</v>
       </c>
       <c r="E23" s="3">
-        <v>102900</v>
+        <v>39100</v>
       </c>
       <c r="F23" s="3">
-        <v>61000</v>
+        <v>96100</v>
       </c>
       <c r="G23" s="3">
-        <v>30300</v>
+        <v>57000</v>
       </c>
       <c r="H23" s="3">
-        <v>4600</v>
+        <v>28300</v>
       </c>
       <c r="I23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+        <v>4300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4900</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
-        <v>12300</v>
+        <v>4600</v>
       </c>
       <c r="F24" s="3">
-        <v>8200</v>
+        <v>11500</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>7700</v>
       </c>
       <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37000</v>
+        <v>14100</v>
       </c>
       <c r="E26" s="3">
-        <v>90600</v>
+        <v>34500</v>
       </c>
       <c r="F26" s="3">
-        <v>52800</v>
+        <v>84700</v>
       </c>
       <c r="G26" s="3">
-        <v>26600</v>
+        <v>49300</v>
       </c>
       <c r="H26" s="3">
-        <v>4100</v>
+        <v>24800</v>
       </c>
       <c r="I26" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+        <v>3800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36100</v>
+        <v>20300</v>
       </c>
       <c r="E27" s="3">
-        <v>90400</v>
+        <v>33700</v>
       </c>
       <c r="F27" s="3">
-        <v>17900</v>
+        <v>84400</v>
       </c>
       <c r="G27" s="3">
-        <v>7900</v>
+        <v>16700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1900</v>
+        <v>7400</v>
       </c>
       <c r="I27" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-1800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1242,11 +1302,11 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>-8500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-5100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4500</v>
+        <v>-7100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1600</v>
+        <v>-4200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2400</v>
+        <v>-1500</v>
       </c>
       <c r="I32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36100</v>
+        <v>20300</v>
       </c>
       <c r="E33" s="3">
-        <v>90400</v>
+        <v>33700</v>
       </c>
       <c r="F33" s="3">
-        <v>17900</v>
+        <v>84400</v>
       </c>
       <c r="G33" s="3">
-        <v>7300</v>
+        <v>16700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1900</v>
+        <v>6800</v>
       </c>
       <c r="I33" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-1800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36100</v>
+        <v>20300</v>
       </c>
       <c r="E35" s="3">
-        <v>90400</v>
+        <v>33700</v>
       </c>
       <c r="F35" s="3">
-        <v>17900</v>
+        <v>84400</v>
       </c>
       <c r="G35" s="3">
-        <v>7300</v>
+        <v>16700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1900</v>
+        <v>6800</v>
       </c>
       <c r="I35" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-1800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,35 +1560,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>359400</v>
+        <v>217100</v>
       </c>
       <c r="E41" s="3">
-        <v>284500</v>
+        <v>335700</v>
       </c>
       <c r="F41" s="3">
-        <v>242800</v>
+        <v>265700</v>
       </c>
       <c r="G41" s="3">
-        <v>57800</v>
+        <v>226800</v>
       </c>
       <c r="H41" s="3">
-        <v>24200</v>
+        <v>54000</v>
       </c>
       <c r="I41" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+        <v>22600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1514,212 +1603,236 @@
         <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="G42" s="3">
-        <v>2200</v>
+        <v>7400</v>
       </c>
       <c r="H42" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>201900</v>
+        <v>160300</v>
       </c>
       <c r="E43" s="3">
-        <v>262500</v>
+        <v>188600</v>
       </c>
       <c r="F43" s="3">
-        <v>119500</v>
+        <v>245200</v>
       </c>
       <c r="G43" s="3">
-        <v>101100</v>
+        <v>111600</v>
       </c>
       <c r="H43" s="3">
-        <v>78700</v>
+        <v>94500</v>
       </c>
       <c r="I43" s="3">
-        <v>32400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+        <v>73500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>192100</v>
+        <v>184100</v>
       </c>
       <c r="E44" s="3">
-        <v>141000</v>
+        <v>179400</v>
       </c>
       <c r="F44" s="3">
-        <v>76500</v>
+        <v>131700</v>
       </c>
       <c r="G44" s="3">
-        <v>39400</v>
+        <v>71400</v>
       </c>
       <c r="H44" s="3">
-        <v>30300</v>
+        <v>36800</v>
       </c>
       <c r="I44" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>28300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>2300</v>
+        <v>4900</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="G45" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H45" s="3">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="I45" s="3">
+        <v>900</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>761600</v>
+        <v>579300</v>
       </c>
       <c r="E46" s="3">
-        <v>693000</v>
+        <v>711400</v>
       </c>
       <c r="F46" s="3">
-        <v>450800</v>
+        <v>647300</v>
       </c>
       <c r="G46" s="3">
-        <v>204400</v>
+        <v>421100</v>
       </c>
       <c r="H46" s="3">
-        <v>135600</v>
+        <v>190900</v>
       </c>
       <c r="I46" s="3">
-        <v>82000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+        <v>126700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70000</v>
+        <v>228800</v>
       </c>
       <c r="E47" s="3">
-        <v>64100</v>
+        <v>65400</v>
       </c>
       <c r="F47" s="3">
-        <v>33000</v>
+        <v>59800</v>
       </c>
       <c r="G47" s="3">
-        <v>13400</v>
+        <v>30800</v>
       </c>
       <c r="H47" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="I47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43500</v>
+        <v>35700</v>
       </c>
       <c r="E48" s="3">
-        <v>27300</v>
+        <v>40600</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>25500</v>
       </c>
       <c r="G48" s="3">
-        <v>4500</v>
+        <v>5900</v>
       </c>
       <c r="H48" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32800</v>
+        <v>29000</v>
       </c>
       <c r="E49" s="3">
-        <v>14500</v>
+        <v>30600</v>
       </c>
       <c r="F49" s="3">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="G49" s="3">
-        <v>1800</v>
+        <v>10300</v>
       </c>
       <c r="H49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>24000</v>
       </c>
       <c r="E52" s="3">
-        <v>17600</v>
+        <v>21900</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>16400</v>
       </c>
       <c r="G52" s="3">
-        <v>7100</v>
+        <v>12100</v>
       </c>
       <c r="H52" s="3">
-        <v>3600</v>
+        <v>6600</v>
       </c>
       <c r="I52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>931400</v>
+        <v>896800</v>
       </c>
       <c r="E54" s="3">
-        <v>816400</v>
+        <v>870000</v>
       </c>
       <c r="F54" s="3">
-        <v>514100</v>
+        <v>762600</v>
       </c>
       <c r="G54" s="3">
-        <v>231200</v>
+        <v>480200</v>
       </c>
       <c r="H54" s="3">
-        <v>153500</v>
+        <v>216000</v>
       </c>
       <c r="I54" s="3">
-        <v>83500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+        <v>143400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,124 +2008,137 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>309600</v>
+        <v>201500</v>
       </c>
       <c r="E57" s="3">
-        <v>317800</v>
+        <v>289200</v>
       </c>
       <c r="F57" s="3">
-        <v>169600</v>
+        <v>296900</v>
       </c>
       <c r="G57" s="3">
-        <v>112900</v>
+        <v>158400</v>
       </c>
       <c r="H57" s="3">
-        <v>86400</v>
+        <v>105500</v>
       </c>
       <c r="I57" s="3">
-        <v>41000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+        <v>80700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79600</v>
+        <v>68100</v>
       </c>
       <c r="E58" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>6100</v>
-      </c>
       <c r="G58" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H58" s="3">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50900</v>
+        <v>47600</v>
       </c>
       <c r="E59" s="3">
-        <v>73300</v>
+        <v>47500</v>
       </c>
       <c r="F59" s="3">
-        <v>43200</v>
+        <v>68500</v>
       </c>
       <c r="G59" s="3">
-        <v>19900</v>
+        <v>40400</v>
       </c>
       <c r="H59" s="3">
-        <v>11700</v>
+        <v>18600</v>
       </c>
       <c r="I59" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>10900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>440100</v>
+        <v>317100</v>
       </c>
       <c r="E60" s="3">
-        <v>391500</v>
+        <v>411100</v>
       </c>
       <c r="F60" s="3">
-        <v>218900</v>
+        <v>365700</v>
       </c>
       <c r="G60" s="3">
-        <v>138400</v>
+        <v>204500</v>
       </c>
       <c r="H60" s="3">
-        <v>100100</v>
+        <v>129300</v>
       </c>
       <c r="I60" s="3">
-        <v>43800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+        <v>93500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9500</v>
+        <v>107100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2013,36 +2155,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51100</v>
+        <v>40200</v>
       </c>
       <c r="E62" s="3">
-        <v>30800</v>
+        <v>47700</v>
       </c>
       <c r="F62" s="3">
-        <v>9700</v>
+        <v>28800</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>9000</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500600</v>
+        <v>466400</v>
       </c>
       <c r="E66" s="3">
-        <v>421800</v>
+        <v>467600</v>
       </c>
       <c r="F66" s="3">
-        <v>228400</v>
+        <v>394000</v>
       </c>
       <c r="G66" s="3">
-        <v>140400</v>
+        <v>213300</v>
       </c>
       <c r="H66" s="3">
-        <v>100100</v>
+        <v>131200</v>
       </c>
       <c r="I66" s="3">
-        <v>43800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+        <v>93500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2231,20 +2398,23 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>55200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>48600</v>
+        <v>51500</v>
       </c>
       <c r="I70" s="3">
-        <v>43000</v>
+        <v>45400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+        <v>40100</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>178800</v>
+        <v>187300</v>
       </c>
       <c r="E72" s="3">
-        <v>143700</v>
+        <v>167000</v>
       </c>
       <c r="F72" s="3">
-        <v>53600</v>
+        <v>134200</v>
       </c>
       <c r="G72" s="3">
-        <v>20700</v>
+        <v>50100</v>
       </c>
       <c r="H72" s="3">
-        <v>-5800</v>
+        <v>19300</v>
       </c>
       <c r="I72" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-5400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>430700</v>
+        <v>430300</v>
       </c>
       <c r="E76" s="3">
-        <v>394500</v>
+        <v>402300</v>
       </c>
       <c r="F76" s="3">
-        <v>285700</v>
+        <v>368500</v>
       </c>
       <c r="G76" s="3">
-        <v>35600</v>
+        <v>266900</v>
       </c>
       <c r="H76" s="3">
-        <v>4800</v>
+        <v>33300</v>
       </c>
       <c r="I76" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+        <v>4500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36100</v>
+        <v>20300</v>
       </c>
       <c r="E81" s="3">
-        <v>90400</v>
+        <v>33700</v>
       </c>
       <c r="F81" s="3">
-        <v>17900</v>
+        <v>84400</v>
       </c>
       <c r="G81" s="3">
-        <v>7300</v>
+        <v>16700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1900</v>
+        <v>6800</v>
       </c>
       <c r="I81" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-1800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4300</v>
+        <v>7600</v>
       </c>
       <c r="E83" s="3">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24800</v>
+        <v>-34300</v>
       </c>
       <c r="E89" s="3">
-        <v>67500</v>
+        <v>23200</v>
       </c>
       <c r="F89" s="3">
-        <v>111600</v>
+        <v>63100</v>
       </c>
       <c r="G89" s="3">
-        <v>37600</v>
+        <v>104300</v>
       </c>
       <c r="H89" s="3">
-        <v>2700</v>
+        <v>35100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-6800</v>
       </c>
       <c r="E91" s="3">
-        <v>-5400</v>
+        <v>-12300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3400</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1600</v>
+        <v>-3200</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-1500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32600</v>
+        <v>-157600</v>
       </c>
       <c r="E94" s="3">
-        <v>-17800</v>
+        <v>-30500</v>
       </c>
       <c r="F94" s="3">
-        <v>-51200</v>
+        <v>-16600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6100</v>
+        <v>-47900</v>
       </c>
       <c r="H94" s="3">
-        <v>-15700</v>
+        <v>-5700</v>
       </c>
       <c r="I94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-14600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89100</v>
+        <v>81200</v>
       </c>
       <c r="E100" s="3">
-        <v>4000</v>
+        <v>83200</v>
       </c>
       <c r="F100" s="3">
-        <v>100800</v>
+        <v>3800</v>
       </c>
       <c r="G100" s="3">
-        <v>3200</v>
+        <v>94200</v>
       </c>
       <c r="H100" s="3">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="I100" s="3">
-        <v>33800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-2300</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>-6400</v>
       </c>
       <c r="F101" s="3">
-        <v>9500</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>74400</v>
+        <v>-112900</v>
       </c>
       <c r="E102" s="3">
-        <v>55600</v>
+        <v>69500</v>
       </c>
       <c r="F102" s="3">
-        <v>170700</v>
+        <v>51900</v>
       </c>
       <c r="G102" s="3">
-        <v>34100</v>
+        <v>159500</v>
       </c>
       <c r="H102" s="3">
-        <v>-10500</v>
+        <v>31900</v>
       </c>
       <c r="I102" s="3">
-        <v>33500</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3"/>
+        <v>-9800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -715,25 +715,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>921000</v>
+        <v>912700</v>
       </c>
       <c r="E8" s="3">
-        <v>948000</v>
+        <v>939500</v>
       </c>
       <c r="F8" s="3">
-        <v>856500</v>
+        <v>848800</v>
       </c>
       <c r="G8" s="3">
-        <v>537200</v>
+        <v>532300</v>
       </c>
       <c r="H8" s="3">
-        <v>301900</v>
+        <v>299200</v>
       </c>
       <c r="I8" s="3">
-        <v>229400</v>
+        <v>227300</v>
       </c>
       <c r="J8" s="3">
-        <v>132100</v>
+        <v>130900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -745,25 +745,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>728600</v>
+        <v>722000</v>
       </c>
       <c r="E9" s="3">
-        <v>751600</v>
+        <v>744900</v>
       </c>
       <c r="F9" s="3">
-        <v>640200</v>
+        <v>634400</v>
       </c>
       <c r="G9" s="3">
-        <v>398700</v>
+        <v>395100</v>
       </c>
       <c r="H9" s="3">
-        <v>229000</v>
+        <v>227000</v>
       </c>
       <c r="I9" s="3">
-        <v>188700</v>
+        <v>187000</v>
       </c>
       <c r="J9" s="3">
-        <v>115800</v>
+        <v>114800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -775,25 +775,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>192400</v>
+        <v>190700</v>
       </c>
       <c r="E10" s="3">
-        <v>196400</v>
+        <v>194600</v>
       </c>
       <c r="F10" s="3">
-        <v>216300</v>
+        <v>214300</v>
       </c>
       <c r="G10" s="3">
-        <v>138400</v>
+        <v>137200</v>
       </c>
       <c r="H10" s="3">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="I10" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="J10" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="E12" s="3">
-        <v>79300</v>
+        <v>78600</v>
       </c>
       <c r="F12" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="G12" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="H12" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="I12" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="J12" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>907200</v>
+        <v>899000</v>
       </c>
       <c r="E17" s="3">
-        <v>914000</v>
+        <v>905800</v>
       </c>
       <c r="F17" s="3">
-        <v>767500</v>
+        <v>760600</v>
       </c>
       <c r="G17" s="3">
-        <v>484400</v>
+        <v>480000</v>
       </c>
       <c r="H17" s="3">
-        <v>275100</v>
+        <v>272600</v>
       </c>
       <c r="I17" s="3">
-        <v>227400</v>
+        <v>225300</v>
       </c>
       <c r="J17" s="3">
-        <v>138000</v>
+        <v>136800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E18" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="F18" s="3">
-        <v>89000</v>
+        <v>88200</v>
       </c>
       <c r="G18" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="H18" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="I18" s="3">
         <v>2000</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E20" s="3">
         <v>5100</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30100</v>
+        <v>29700</v>
       </c>
       <c r="E21" s="3">
-        <v>43200</v>
+        <v>42700</v>
       </c>
       <c r="F21" s="3">
-        <v>98700</v>
+        <v>97800</v>
       </c>
       <c r="G21" s="3">
-        <v>57900</v>
+        <v>57400</v>
       </c>
       <c r="H21" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="I21" s="3">
         <v>4600</v>
       </c>
       <c r="J21" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="E23" s="3">
-        <v>39100</v>
+        <v>38800</v>
       </c>
       <c r="F23" s="3">
-        <v>96100</v>
+        <v>95300</v>
       </c>
       <c r="G23" s="3">
-        <v>57000</v>
+        <v>56500</v>
       </c>
       <c r="H23" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="I23" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J23" s="3">
         <v>-5700</v>
@@ -1147,13 +1147,13 @@
         <v>1600</v>
       </c>
       <c r="E24" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F24" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="G24" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
         <v>3400</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="E26" s="3">
-        <v>34500</v>
+        <v>34200</v>
       </c>
       <c r="F26" s="3">
-        <v>84700</v>
+        <v>83900</v>
       </c>
       <c r="G26" s="3">
-        <v>49300</v>
+        <v>48900</v>
       </c>
       <c r="H26" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="I26" s="3">
         <v>3800</v>
       </c>
       <c r="J26" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E27" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="F27" s="3">
-        <v>84400</v>
+        <v>83600</v>
       </c>
       <c r="G27" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H27" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I27" s="3">
         <v>-1800</v>
       </c>
       <c r="J27" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="E32" s="3">
         <v>-5100</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="F33" s="3">
-        <v>84400</v>
+        <v>83600</v>
       </c>
       <c r="G33" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H33" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I33" s="3">
         <v>-1800</v>
       </c>
       <c r="J33" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="F35" s="3">
-        <v>84400</v>
+        <v>83600</v>
       </c>
       <c r="G35" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H35" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I35" s="3">
         <v>-1800</v>
       </c>
       <c r="J35" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>217100</v>
+        <v>215200</v>
       </c>
       <c r="E41" s="3">
-        <v>335700</v>
+        <v>332700</v>
       </c>
       <c r="F41" s="3">
-        <v>265700</v>
+        <v>263300</v>
       </c>
       <c r="G41" s="3">
-        <v>226800</v>
+        <v>224700</v>
       </c>
       <c r="H41" s="3">
-        <v>54000</v>
+        <v>53500</v>
       </c>
       <c r="I41" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="J41" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E42" s="3">
         <v>2700</v>
@@ -1612,7 +1612,7 @@
         <v>2000</v>
       </c>
       <c r="I42" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>160300</v>
+        <v>158900</v>
       </c>
       <c r="E43" s="3">
-        <v>188600</v>
+        <v>186900</v>
       </c>
       <c r="F43" s="3">
-        <v>245200</v>
+        <v>243000</v>
       </c>
       <c r="G43" s="3">
-        <v>111600</v>
+        <v>110600</v>
       </c>
       <c r="H43" s="3">
-        <v>94500</v>
+        <v>93600</v>
       </c>
       <c r="I43" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="J43" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1657,25 +1657,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184100</v>
+        <v>182400</v>
       </c>
       <c r="E44" s="3">
-        <v>179400</v>
+        <v>177800</v>
       </c>
       <c r="F44" s="3">
-        <v>131700</v>
+        <v>130500</v>
       </c>
       <c r="G44" s="3">
-        <v>71400</v>
+        <v>70800</v>
       </c>
       <c r="H44" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="I44" s="3">
-        <v>28300</v>
+        <v>28100</v>
       </c>
       <c r="J44" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="E45" s="3">
         <v>4900</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>579300</v>
+        <v>574000</v>
       </c>
       <c r="E46" s="3">
-        <v>711400</v>
+        <v>705000</v>
       </c>
       <c r="F46" s="3">
-        <v>647300</v>
+        <v>641400</v>
       </c>
       <c r="G46" s="3">
-        <v>421100</v>
+        <v>417300</v>
       </c>
       <c r="H46" s="3">
-        <v>190900</v>
+        <v>189200</v>
       </c>
       <c r="I46" s="3">
-        <v>126700</v>
+        <v>125600</v>
       </c>
       <c r="J46" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1747,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>228800</v>
+        <v>226700</v>
       </c>
       <c r="E47" s="3">
-        <v>65400</v>
+        <v>64800</v>
       </c>
       <c r="F47" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="G47" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="H47" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="I47" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="E48" s="3">
-        <v>40600</v>
+        <v>40300</v>
       </c>
       <c r="F48" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H48" s="3">
         <v>4200</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="E49" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="F49" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="G49" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="E52" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="F52" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="G52" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="H52" s="3">
         <v>6600</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>896800</v>
+        <v>888700</v>
       </c>
       <c r="E54" s="3">
-        <v>870000</v>
+        <v>862100</v>
       </c>
       <c r="F54" s="3">
-        <v>762600</v>
+        <v>755700</v>
       </c>
       <c r="G54" s="3">
-        <v>480200</v>
+        <v>475800</v>
       </c>
       <c r="H54" s="3">
-        <v>216000</v>
+        <v>214000</v>
       </c>
       <c r="I54" s="3">
-        <v>143400</v>
+        <v>142100</v>
       </c>
       <c r="J54" s="3">
-        <v>78000</v>
+        <v>77300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>201500</v>
+        <v>199700</v>
       </c>
       <c r="E57" s="3">
-        <v>289200</v>
+        <v>286600</v>
       </c>
       <c r="F57" s="3">
-        <v>296900</v>
+        <v>294200</v>
       </c>
       <c r="G57" s="3">
-        <v>158400</v>
+        <v>157000</v>
       </c>
       <c r="H57" s="3">
-        <v>105500</v>
+        <v>104500</v>
       </c>
       <c r="I57" s="3">
-        <v>80700</v>
+        <v>80000</v>
       </c>
       <c r="J57" s="3">
-        <v>38300</v>
+        <v>38000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>68100</v>
+        <v>67400</v>
       </c>
       <c r="E58" s="3">
-        <v>74400</v>
+        <v>73700</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2057,10 +2057,10 @@
         <v>5700</v>
       </c>
       <c r="H58" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47600</v>
+        <v>47200</v>
       </c>
       <c r="E59" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="F59" s="3">
-        <v>68500</v>
+        <v>67900</v>
       </c>
       <c r="G59" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="H59" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="I59" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J59" s="3">
         <v>2600</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>317100</v>
+        <v>314300</v>
       </c>
       <c r="E60" s="3">
-        <v>411100</v>
+        <v>407400</v>
       </c>
       <c r="F60" s="3">
-        <v>365700</v>
+        <v>362400</v>
       </c>
       <c r="G60" s="3">
-        <v>204500</v>
+        <v>202600</v>
       </c>
       <c r="H60" s="3">
-        <v>129300</v>
+        <v>128100</v>
       </c>
       <c r="I60" s="3">
-        <v>93500</v>
+        <v>92600</v>
       </c>
       <c r="J60" s="3">
-        <v>40900</v>
+        <v>40600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107100</v>
+        <v>106100</v>
       </c>
       <c r="E61" s="3">
         <v>8800</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="E62" s="3">
-        <v>47700</v>
+        <v>47300</v>
       </c>
       <c r="F62" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="G62" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="H62" s="3">
         <v>1500</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>466400</v>
+        <v>462200</v>
       </c>
       <c r="E66" s="3">
-        <v>467600</v>
+        <v>463400</v>
       </c>
       <c r="F66" s="3">
-        <v>394000</v>
+        <v>390500</v>
       </c>
       <c r="G66" s="3">
-        <v>213300</v>
+        <v>211400</v>
       </c>
       <c r="H66" s="3">
-        <v>131200</v>
+        <v>130000</v>
       </c>
       <c r="I66" s="3">
-        <v>93500</v>
+        <v>92600</v>
       </c>
       <c r="J66" s="3">
-        <v>40900</v>
+        <v>40600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2401,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>51500</v>
+        <v>51100</v>
       </c>
       <c r="I70" s="3">
-        <v>45400</v>
+        <v>45000</v>
       </c>
       <c r="J70" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>187300</v>
+        <v>185600</v>
       </c>
       <c r="E72" s="3">
-        <v>167000</v>
+        <v>165500</v>
       </c>
       <c r="F72" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="G72" s="3">
-        <v>50100</v>
+        <v>49700</v>
       </c>
       <c r="H72" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="I72" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="J72" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>430300</v>
+        <v>426500</v>
       </c>
       <c r="E76" s="3">
-        <v>402300</v>
+        <v>398700</v>
       </c>
       <c r="F76" s="3">
-        <v>368500</v>
+        <v>365200</v>
       </c>
       <c r="G76" s="3">
-        <v>266900</v>
+        <v>264400</v>
       </c>
       <c r="H76" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="I76" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J76" s="3">
         <v>-3100</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="F81" s="3">
-        <v>84400</v>
+        <v>83600</v>
       </c>
       <c r="G81" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H81" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I81" s="3">
         <v>-1800</v>
       </c>
       <c r="J81" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-34300</v>
+        <v>-33900</v>
       </c>
       <c r="E89" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="F89" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="G89" s="3">
-        <v>104300</v>
+        <v>103300</v>
       </c>
       <c r="H89" s="3">
-        <v>35100</v>
+        <v>34800</v>
       </c>
       <c r="I89" s="3">
         <v>2500</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="E91" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="F91" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="G91" s="3">
         <v>-2500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3">
         <v>-1500</v>
@@ -3022,22 +3022,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-157600</v>
+        <v>-156100</v>
       </c>
       <c r="E94" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F94" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="G94" s="3">
-        <v>-47900</v>
+        <v>-47400</v>
       </c>
       <c r="H94" s="3">
         <v>-5700</v>
       </c>
       <c r="I94" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="J94" s="3">
         <v>-700</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>81200</v>
+        <v>80500</v>
       </c>
       <c r="E100" s="3">
-        <v>83200</v>
+        <v>82500</v>
       </c>
       <c r="F100" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G100" s="3">
-        <v>94200</v>
+        <v>93300</v>
       </c>
       <c r="H100" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I100" s="3">
         <v>1500</v>
       </c>
       <c r="J100" s="3">
-        <v>31500</v>
+        <v>31300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3219,13 +3219,13 @@
         <v>-2300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-112900</v>
+        <v>-111900</v>
       </c>
       <c r="E102" s="3">
-        <v>69500</v>
+        <v>68900</v>
       </c>
       <c r="F102" s="3">
-        <v>51900</v>
+        <v>51400</v>
       </c>
       <c r="G102" s="3">
-        <v>159500</v>
+        <v>158000</v>
       </c>
       <c r="H102" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="I102" s="3">
         <v>-9800</v>
       </c>
       <c r="J102" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -715,25 +715,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>912700</v>
+        <v>870000</v>
       </c>
       <c r="E8" s="3">
-        <v>939500</v>
+        <v>895500</v>
       </c>
       <c r="F8" s="3">
-        <v>848800</v>
+        <v>809100</v>
       </c>
       <c r="G8" s="3">
-        <v>532300</v>
+        <v>507400</v>
       </c>
       <c r="H8" s="3">
-        <v>299200</v>
+        <v>285200</v>
       </c>
       <c r="I8" s="3">
-        <v>227300</v>
+        <v>216700</v>
       </c>
       <c r="J8" s="3">
-        <v>130900</v>
+        <v>124800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -745,25 +745,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>722000</v>
+        <v>688300</v>
       </c>
       <c r="E9" s="3">
-        <v>744900</v>
+        <v>710000</v>
       </c>
       <c r="F9" s="3">
-        <v>634400</v>
+        <v>604800</v>
       </c>
       <c r="G9" s="3">
-        <v>395100</v>
+        <v>376700</v>
       </c>
       <c r="H9" s="3">
-        <v>227000</v>
+        <v>216300</v>
       </c>
       <c r="I9" s="3">
-        <v>187000</v>
+        <v>178200</v>
       </c>
       <c r="J9" s="3">
-        <v>114800</v>
+        <v>109400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -775,25 +775,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>190700</v>
+        <v>181700</v>
       </c>
       <c r="E10" s="3">
-        <v>194600</v>
+        <v>185500</v>
       </c>
       <c r="F10" s="3">
-        <v>214300</v>
+        <v>204300</v>
       </c>
       <c r="G10" s="3">
-        <v>137200</v>
+        <v>130800</v>
       </c>
       <c r="H10" s="3">
-        <v>72200</v>
+        <v>68900</v>
       </c>
       <c r="I10" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="J10" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>75200</v>
+        <v>71700</v>
       </c>
       <c r="E12" s="3">
-        <v>78600</v>
+        <v>74900</v>
       </c>
       <c r="F12" s="3">
-        <v>62900</v>
+        <v>60000</v>
       </c>
       <c r="G12" s="3">
-        <v>38400</v>
+        <v>36600</v>
       </c>
       <c r="H12" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="I12" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="J12" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>899000</v>
+        <v>856900</v>
       </c>
       <c r="E17" s="3">
-        <v>905800</v>
+        <v>863400</v>
       </c>
       <c r="F17" s="3">
-        <v>760600</v>
+        <v>725000</v>
       </c>
       <c r="G17" s="3">
-        <v>480000</v>
+        <v>457600</v>
       </c>
       <c r="H17" s="3">
-        <v>272600</v>
+        <v>259900</v>
       </c>
       <c r="I17" s="3">
-        <v>225300</v>
+        <v>214800</v>
       </c>
       <c r="J17" s="3">
-        <v>136800</v>
+        <v>130400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -980,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E18" s="3">
-        <v>33700</v>
+        <v>32100</v>
       </c>
       <c r="F18" s="3">
-        <v>88200</v>
+        <v>84100</v>
       </c>
       <c r="G18" s="3">
-        <v>52300</v>
+        <v>49900</v>
       </c>
       <c r="H18" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="I18" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J18" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1024,22 +1024,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="E21" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="F21" s="3">
-        <v>97800</v>
+        <v>93200</v>
       </c>
       <c r="G21" s="3">
-        <v>57400</v>
+        <v>54700</v>
       </c>
       <c r="H21" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="I21" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J21" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="E23" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="F23" s="3">
-        <v>95300</v>
+        <v>90800</v>
       </c>
       <c r="G23" s="3">
-        <v>56500</v>
+        <v>53800</v>
       </c>
       <c r="H23" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="I23" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J23" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1144,22 +1144,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F24" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="H24" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="E26" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="F26" s="3">
-        <v>83900</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="3">
-        <v>48900</v>
+        <v>46600</v>
       </c>
       <c r="H26" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="I26" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J26" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E27" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="F27" s="3">
-        <v>83600</v>
+        <v>79700</v>
       </c>
       <c r="G27" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="H27" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J27" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1384,22 +1384,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>-8000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E33" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="F33" s="3">
-        <v>83600</v>
+        <v>79700</v>
       </c>
       <c r="G33" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="H33" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J33" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E35" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="F35" s="3">
-        <v>83600</v>
+        <v>79700</v>
       </c>
       <c r="G35" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="H35" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J35" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>215200</v>
+        <v>205100</v>
       </c>
       <c r="E41" s="3">
-        <v>332700</v>
+        <v>317100</v>
       </c>
       <c r="F41" s="3">
-        <v>263300</v>
+        <v>251000</v>
       </c>
       <c r="G41" s="3">
-        <v>224700</v>
+        <v>214200</v>
       </c>
       <c r="H41" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="I41" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="J41" s="3">
-        <v>32100</v>
+        <v>30600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F42" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G42" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I42" s="3">
         <v>1300</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158900</v>
+        <v>151400</v>
       </c>
       <c r="E43" s="3">
-        <v>186900</v>
+        <v>178200</v>
       </c>
       <c r="F43" s="3">
-        <v>243000</v>
+        <v>231600</v>
       </c>
       <c r="G43" s="3">
-        <v>110600</v>
+        <v>105400</v>
       </c>
       <c r="H43" s="3">
-        <v>93600</v>
+        <v>89200</v>
       </c>
       <c r="I43" s="3">
-        <v>72800</v>
+        <v>69400</v>
       </c>
       <c r="J43" s="3">
-        <v>30000</v>
+        <v>28600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1657,25 +1657,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>182400</v>
+        <v>173900</v>
       </c>
       <c r="E44" s="3">
-        <v>177800</v>
+        <v>169500</v>
       </c>
       <c r="F44" s="3">
-        <v>130500</v>
+        <v>124400</v>
       </c>
       <c r="G44" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="H44" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="I44" s="3">
-        <v>28100</v>
+        <v>26800</v>
       </c>
       <c r="J44" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I45" s="3">
         <v>900</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>574000</v>
+        <v>547200</v>
       </c>
       <c r="E46" s="3">
-        <v>705000</v>
+        <v>672000</v>
       </c>
       <c r="F46" s="3">
-        <v>641400</v>
+        <v>611400</v>
       </c>
       <c r="G46" s="3">
-        <v>417300</v>
+        <v>397800</v>
       </c>
       <c r="H46" s="3">
-        <v>189200</v>
+        <v>180300</v>
       </c>
       <c r="I46" s="3">
-        <v>125600</v>
+        <v>119700</v>
       </c>
       <c r="J46" s="3">
-        <v>75900</v>
+        <v>72300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1747,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>226700</v>
+        <v>216100</v>
       </c>
       <c r="E47" s="3">
-        <v>64800</v>
+        <v>61800</v>
       </c>
       <c r="F47" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="G47" s="3">
-        <v>30500</v>
+        <v>29100</v>
       </c>
       <c r="H47" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="I47" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -1777,22 +1777,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35400</v>
+        <v>33700</v>
       </c>
       <c r="E48" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="F48" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H48" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28700</v>
+        <v>27400</v>
       </c>
       <c r="E49" s="3">
-        <v>30300</v>
+        <v>28900</v>
       </c>
       <c r="F49" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="G49" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="H49" s="3">
         <v>1600</v>
@@ -1897,25 +1897,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="E52" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="F52" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="G52" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="H52" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="I52" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>888700</v>
+        <v>847100</v>
       </c>
       <c r="E54" s="3">
-        <v>862100</v>
+        <v>821800</v>
       </c>
       <c r="F54" s="3">
-        <v>755700</v>
+        <v>720300</v>
       </c>
       <c r="G54" s="3">
-        <v>475800</v>
+        <v>453600</v>
       </c>
       <c r="H54" s="3">
-        <v>214000</v>
+        <v>204000</v>
       </c>
       <c r="I54" s="3">
-        <v>142100</v>
+        <v>135400</v>
       </c>
       <c r="J54" s="3">
-        <v>77300</v>
+        <v>73600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>199700</v>
+        <v>190300</v>
       </c>
       <c r="E57" s="3">
-        <v>286600</v>
+        <v>273200</v>
       </c>
       <c r="F57" s="3">
-        <v>294200</v>
+        <v>280400</v>
       </c>
       <c r="G57" s="3">
-        <v>157000</v>
+        <v>149600</v>
       </c>
       <c r="H57" s="3">
-        <v>104500</v>
+        <v>99700</v>
       </c>
       <c r="I57" s="3">
-        <v>80000</v>
+        <v>76200</v>
       </c>
       <c r="J57" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67400</v>
+        <v>64300</v>
       </c>
       <c r="E58" s="3">
-        <v>73700</v>
+        <v>70300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H58" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="I58" s="3">
         <v>1800</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47200</v>
+        <v>44900</v>
       </c>
       <c r="E59" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="F59" s="3">
-        <v>67900</v>
+        <v>64700</v>
       </c>
       <c r="G59" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="H59" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="I59" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="J59" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>314300</v>
+        <v>299600</v>
       </c>
       <c r="E60" s="3">
-        <v>407400</v>
+        <v>388300</v>
       </c>
       <c r="F60" s="3">
-        <v>362400</v>
+        <v>345500</v>
       </c>
       <c r="G60" s="3">
-        <v>202600</v>
+        <v>193200</v>
       </c>
       <c r="H60" s="3">
-        <v>128100</v>
+        <v>122100</v>
       </c>
       <c r="I60" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="J60" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>106100</v>
+        <v>101200</v>
       </c>
       <c r="E61" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="E62" s="3">
-        <v>47300</v>
+        <v>45100</v>
       </c>
       <c r="F62" s="3">
-        <v>28500</v>
+        <v>27200</v>
       </c>
       <c r="G62" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H62" s="3">
         <v>1500</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>462200</v>
+        <v>440600</v>
       </c>
       <c r="E66" s="3">
-        <v>463400</v>
+        <v>441700</v>
       </c>
       <c r="F66" s="3">
-        <v>390500</v>
+        <v>372200</v>
       </c>
       <c r="G66" s="3">
-        <v>211400</v>
+        <v>201500</v>
       </c>
       <c r="H66" s="3">
-        <v>130000</v>
+        <v>123900</v>
       </c>
       <c r="I66" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="J66" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2401,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>51100</v>
+        <v>48700</v>
       </c>
       <c r="I70" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="J70" s="3">
-        <v>39800</v>
+        <v>37900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>185600</v>
+        <v>176900</v>
       </c>
       <c r="E72" s="3">
-        <v>165500</v>
+        <v>157800</v>
       </c>
       <c r="F72" s="3">
-        <v>133000</v>
+        <v>126800</v>
       </c>
       <c r="G72" s="3">
-        <v>49700</v>
+        <v>47300</v>
       </c>
       <c r="H72" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="I72" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J72" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>426500</v>
+        <v>406500</v>
       </c>
       <c r="E76" s="3">
-        <v>398700</v>
+        <v>380100</v>
       </c>
       <c r="F76" s="3">
-        <v>365200</v>
+        <v>348100</v>
       </c>
       <c r="G76" s="3">
-        <v>264400</v>
+        <v>252100</v>
       </c>
       <c r="H76" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="I76" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J76" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E81" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="F81" s="3">
-        <v>83600</v>
+        <v>79700</v>
       </c>
       <c r="G81" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="H81" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J81" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -2723,7 +2723,7 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33900</v>
+        <v>-32400</v>
       </c>
       <c r="E89" s="3">
-        <v>23000</v>
+        <v>21900</v>
       </c>
       <c r="F89" s="3">
-        <v>62500</v>
+        <v>59600</v>
       </c>
       <c r="G89" s="3">
-        <v>103300</v>
+        <v>98500</v>
       </c>
       <c r="H89" s="3">
-        <v>34800</v>
+        <v>33200</v>
       </c>
       <c r="I89" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2932,22 +2932,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="E91" s="3">
-        <v>-12200</v>
+        <v>-11600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -3022,22 +3022,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156100</v>
+        <v>-148800</v>
       </c>
       <c r="E94" s="3">
-        <v>-30200</v>
+        <v>-28800</v>
       </c>
       <c r="F94" s="3">
-        <v>-16500</v>
+        <v>-15700</v>
       </c>
       <c r="G94" s="3">
-        <v>-47400</v>
+        <v>-45200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14500</v>
+        <v>-13800</v>
       </c>
       <c r="J94" s="3">
         <v>-700</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80500</v>
+        <v>76700</v>
       </c>
       <c r="E100" s="3">
-        <v>82500</v>
+        <v>78600</v>
       </c>
       <c r="F100" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G100" s="3">
-        <v>93300</v>
+        <v>89000</v>
       </c>
       <c r="H100" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I100" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J100" s="3">
-        <v>31300</v>
+        <v>29800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3216,25 +3216,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="F101" s="3">
         <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-111900</v>
+        <v>-106700</v>
       </c>
       <c r="E102" s="3">
-        <v>68900</v>
+        <v>65700</v>
       </c>
       <c r="F102" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="G102" s="3">
-        <v>158000</v>
+        <v>150700</v>
       </c>
       <c r="H102" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="I102" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="J102" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -715,25 +715,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>870000</v>
+        <v>897600</v>
       </c>
       <c r="E8" s="3">
-        <v>895500</v>
+        <v>924000</v>
       </c>
       <c r="F8" s="3">
-        <v>809100</v>
+        <v>834800</v>
       </c>
       <c r="G8" s="3">
-        <v>507400</v>
+        <v>523500</v>
       </c>
       <c r="H8" s="3">
-        <v>285200</v>
+        <v>294300</v>
       </c>
       <c r="I8" s="3">
-        <v>216700</v>
+        <v>223500</v>
       </c>
       <c r="J8" s="3">
-        <v>124800</v>
+        <v>128700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -745,25 +745,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>688300</v>
+        <v>710100</v>
       </c>
       <c r="E9" s="3">
-        <v>710000</v>
+        <v>732600</v>
       </c>
       <c r="F9" s="3">
-        <v>604800</v>
+        <v>624000</v>
       </c>
       <c r="G9" s="3">
-        <v>376700</v>
+        <v>388600</v>
       </c>
       <c r="H9" s="3">
-        <v>216300</v>
+        <v>223200</v>
       </c>
       <c r="I9" s="3">
-        <v>178200</v>
+        <v>183900</v>
       </c>
       <c r="J9" s="3">
-        <v>109400</v>
+        <v>112900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -775,25 +775,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>181700</v>
+        <v>187500</v>
       </c>
       <c r="E10" s="3">
-        <v>185500</v>
+        <v>191400</v>
       </c>
       <c r="F10" s="3">
-        <v>204300</v>
+        <v>210800</v>
       </c>
       <c r="G10" s="3">
-        <v>130800</v>
+        <v>134900</v>
       </c>
       <c r="H10" s="3">
-        <v>68900</v>
+        <v>71000</v>
       </c>
       <c r="I10" s="3">
-        <v>38400</v>
+        <v>39700</v>
       </c>
       <c r="J10" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>71700</v>
+        <v>74000</v>
       </c>
       <c r="E12" s="3">
-        <v>74900</v>
+        <v>77300</v>
       </c>
       <c r="F12" s="3">
-        <v>60000</v>
+        <v>61900</v>
       </c>
       <c r="G12" s="3">
-        <v>36600</v>
+        <v>37800</v>
       </c>
       <c r="H12" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="I12" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="J12" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>856900</v>
+        <v>884100</v>
       </c>
       <c r="E17" s="3">
-        <v>863400</v>
+        <v>890800</v>
       </c>
       <c r="F17" s="3">
-        <v>725000</v>
+        <v>748000</v>
       </c>
       <c r="G17" s="3">
-        <v>457600</v>
+        <v>472100</v>
       </c>
       <c r="H17" s="3">
-        <v>259900</v>
+        <v>268100</v>
       </c>
       <c r="I17" s="3">
-        <v>214800</v>
+        <v>221600</v>
       </c>
       <c r="J17" s="3">
-        <v>130400</v>
+        <v>134500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -980,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="E18" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="F18" s="3">
-        <v>84100</v>
+        <v>86700</v>
       </c>
       <c r="G18" s="3">
-        <v>49900</v>
+        <v>51400</v>
       </c>
       <c r="H18" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="I18" s="3">
         <v>1900</v>
       </c>
       <c r="J18" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H20" s="3">
         <v>1400</v>
@@ -1054,25 +1054,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28300</v>
+        <v>29200</v>
       </c>
       <c r="E21" s="3">
-        <v>40700</v>
+        <v>42100</v>
       </c>
       <c r="F21" s="3">
-        <v>93200</v>
+        <v>96200</v>
       </c>
       <c r="G21" s="3">
-        <v>54700</v>
+        <v>56400</v>
       </c>
       <c r="H21" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="I21" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="J21" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="E23" s="3">
-        <v>37000</v>
+        <v>38100</v>
       </c>
       <c r="F23" s="3">
-        <v>90800</v>
+        <v>93700</v>
       </c>
       <c r="G23" s="3">
-        <v>53800</v>
+        <v>55500</v>
       </c>
       <c r="H23" s="3">
-        <v>26700</v>
+        <v>27600</v>
       </c>
       <c r="I23" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J23" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1147,16 +1147,16 @@
         <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F24" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="G24" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="E26" s="3">
-        <v>32600</v>
+        <v>33700</v>
       </c>
       <c r="F26" s="3">
-        <v>80000</v>
+        <v>82500</v>
       </c>
       <c r="G26" s="3">
-        <v>46600</v>
+        <v>48100</v>
       </c>
       <c r="H26" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="I26" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J26" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E27" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="F27" s="3">
-        <v>79700</v>
+        <v>82300</v>
       </c>
       <c r="G27" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="H27" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I27" s="3">
         <v>-1700</v>
       </c>
       <c r="J27" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H32" s="3">
         <v>-1400</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E33" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="F33" s="3">
-        <v>79700</v>
+        <v>82300</v>
       </c>
       <c r="G33" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="H33" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I33" s="3">
         <v>-1700</v>
       </c>
       <c r="J33" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E35" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="F35" s="3">
-        <v>79700</v>
+        <v>82300</v>
       </c>
       <c r="G35" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="H35" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I35" s="3">
         <v>-1700</v>
       </c>
       <c r="J35" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205100</v>
+        <v>211600</v>
       </c>
       <c r="E41" s="3">
-        <v>317100</v>
+        <v>327200</v>
       </c>
       <c r="F41" s="3">
-        <v>251000</v>
+        <v>259000</v>
       </c>
       <c r="G41" s="3">
-        <v>214200</v>
+        <v>221000</v>
       </c>
       <c r="H41" s="3">
-        <v>51000</v>
+        <v>52600</v>
       </c>
       <c r="I41" s="3">
-        <v>21300</v>
+        <v>22000</v>
       </c>
       <c r="J41" s="3">
-        <v>30600</v>
+        <v>31600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E42" s="3">
         <v>2600</v>
       </c>
       <c r="F42" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G42" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H42" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I42" s="3">
         <v>1300</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>151400</v>
+        <v>156200</v>
       </c>
       <c r="E43" s="3">
-        <v>178200</v>
+        <v>183800</v>
       </c>
       <c r="F43" s="3">
-        <v>231600</v>
+        <v>239000</v>
       </c>
       <c r="G43" s="3">
-        <v>105400</v>
+        <v>108800</v>
       </c>
       <c r="H43" s="3">
-        <v>89200</v>
+        <v>92100</v>
       </c>
       <c r="I43" s="3">
-        <v>69400</v>
+        <v>71600</v>
       </c>
       <c r="J43" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1657,25 +1657,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>173900</v>
+        <v>179400</v>
       </c>
       <c r="E44" s="3">
-        <v>169500</v>
+        <v>174900</v>
       </c>
       <c r="F44" s="3">
-        <v>124400</v>
+        <v>128400</v>
       </c>
       <c r="G44" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="H44" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="I44" s="3">
-        <v>26800</v>
+        <v>27600</v>
       </c>
       <c r="J44" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3">
         <v>900</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>547200</v>
+        <v>564600</v>
       </c>
       <c r="E46" s="3">
-        <v>672000</v>
+        <v>693400</v>
       </c>
       <c r="F46" s="3">
-        <v>611400</v>
+        <v>630800</v>
       </c>
       <c r="G46" s="3">
-        <v>397800</v>
+        <v>410400</v>
       </c>
       <c r="H46" s="3">
-        <v>180300</v>
+        <v>186000</v>
       </c>
       <c r="I46" s="3">
-        <v>119700</v>
+        <v>123500</v>
       </c>
       <c r="J46" s="3">
-        <v>72300</v>
+        <v>74600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1747,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>216100</v>
+        <v>223000</v>
       </c>
       <c r="E47" s="3">
-        <v>61800</v>
+        <v>63800</v>
       </c>
       <c r="F47" s="3">
-        <v>56500</v>
+        <v>58300</v>
       </c>
       <c r="G47" s="3">
-        <v>29100</v>
+        <v>30000</v>
       </c>
       <c r="H47" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="I47" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -1777,22 +1777,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33700</v>
+        <v>34800</v>
       </c>
       <c r="E48" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="F48" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="G48" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H48" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="E49" s="3">
-        <v>28900</v>
+        <v>29800</v>
       </c>
       <c r="F49" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G49" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="H49" s="3">
         <v>1600</v>
@@ -1897,22 +1897,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="E52" s="3">
-        <v>20700</v>
+        <v>21300</v>
       </c>
       <c r="F52" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="G52" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>847100</v>
+        <v>874000</v>
       </c>
       <c r="E54" s="3">
-        <v>821800</v>
+        <v>847900</v>
       </c>
       <c r="F54" s="3">
-        <v>720300</v>
+        <v>743200</v>
       </c>
       <c r="G54" s="3">
-        <v>453600</v>
+        <v>468000</v>
       </c>
       <c r="H54" s="3">
-        <v>204000</v>
+        <v>210500</v>
       </c>
       <c r="I54" s="3">
-        <v>135400</v>
+        <v>139700</v>
       </c>
       <c r="J54" s="3">
-        <v>73600</v>
+        <v>76000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>190300</v>
+        <v>196400</v>
       </c>
       <c r="E57" s="3">
-        <v>273200</v>
+        <v>281900</v>
       </c>
       <c r="F57" s="3">
-        <v>280400</v>
+        <v>289400</v>
       </c>
       <c r="G57" s="3">
-        <v>149600</v>
+        <v>154400</v>
       </c>
       <c r="H57" s="3">
-        <v>99700</v>
+        <v>102800</v>
       </c>
       <c r="I57" s="3">
-        <v>76200</v>
+        <v>78600</v>
       </c>
       <c r="J57" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>64300</v>
+        <v>66300</v>
       </c>
       <c r="E58" s="3">
-        <v>70300</v>
+        <v>72500</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3">
         <v>1800</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44900</v>
+        <v>46400</v>
       </c>
       <c r="E59" s="3">
-        <v>44900</v>
+        <v>46300</v>
       </c>
       <c r="F59" s="3">
-        <v>64700</v>
+        <v>66800</v>
       </c>
       <c r="G59" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="H59" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="I59" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="J59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>299600</v>
+        <v>309100</v>
       </c>
       <c r="E60" s="3">
-        <v>388300</v>
+        <v>400700</v>
       </c>
       <c r="F60" s="3">
-        <v>345500</v>
+        <v>356400</v>
       </c>
       <c r="G60" s="3">
-        <v>193200</v>
+        <v>199300</v>
       </c>
       <c r="H60" s="3">
-        <v>122100</v>
+        <v>126000</v>
       </c>
       <c r="I60" s="3">
-        <v>88300</v>
+        <v>91100</v>
       </c>
       <c r="J60" s="3">
-        <v>38700</v>
+        <v>39900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101200</v>
+        <v>104400</v>
       </c>
       <c r="E61" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38000</v>
+        <v>39200</v>
       </c>
       <c r="E62" s="3">
-        <v>45100</v>
+        <v>46500</v>
       </c>
       <c r="F62" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="G62" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H62" s="3">
         <v>1500</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>440600</v>
+        <v>454600</v>
       </c>
       <c r="E66" s="3">
-        <v>441700</v>
+        <v>455800</v>
       </c>
       <c r="F66" s="3">
-        <v>372200</v>
+        <v>384000</v>
       </c>
       <c r="G66" s="3">
-        <v>201500</v>
+        <v>207900</v>
       </c>
       <c r="H66" s="3">
-        <v>123900</v>
+        <v>127800</v>
       </c>
       <c r="I66" s="3">
-        <v>88300</v>
+        <v>91100</v>
       </c>
       <c r="J66" s="3">
-        <v>38700</v>
+        <v>39900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2401,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>48700</v>
+        <v>50200</v>
       </c>
       <c r="I70" s="3">
-        <v>42900</v>
+        <v>44300</v>
       </c>
       <c r="J70" s="3">
-        <v>37900</v>
+        <v>39100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>176900</v>
+        <v>182600</v>
       </c>
       <c r="E72" s="3">
-        <v>157800</v>
+        <v>162800</v>
       </c>
       <c r="F72" s="3">
-        <v>126800</v>
+        <v>130800</v>
       </c>
       <c r="G72" s="3">
-        <v>47300</v>
+        <v>48800</v>
       </c>
       <c r="H72" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="I72" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="J72" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>406500</v>
+        <v>419400</v>
       </c>
       <c r="E76" s="3">
-        <v>380100</v>
+        <v>392100</v>
       </c>
       <c r="F76" s="3">
-        <v>348100</v>
+        <v>359200</v>
       </c>
       <c r="G76" s="3">
-        <v>252100</v>
+        <v>260100</v>
       </c>
       <c r="H76" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="I76" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E81" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="F81" s="3">
-        <v>79700</v>
+        <v>82300</v>
       </c>
       <c r="G81" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="H81" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I81" s="3">
         <v>-1700</v>
       </c>
       <c r="J81" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="E89" s="3">
-        <v>21900</v>
+        <v>22600</v>
       </c>
       <c r="F89" s="3">
-        <v>59600</v>
+        <v>61500</v>
       </c>
       <c r="G89" s="3">
-        <v>98500</v>
+        <v>101600</v>
       </c>
       <c r="H89" s="3">
-        <v>33200</v>
+        <v>34200</v>
       </c>
       <c r="I89" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2932,22 +2932,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="E91" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -3022,22 +3022,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-148800</v>
+        <v>-153600</v>
       </c>
       <c r="E94" s="3">
-        <v>-28800</v>
+        <v>-29700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15700</v>
+        <v>-16200</v>
       </c>
       <c r="G94" s="3">
-        <v>-45200</v>
+        <v>-46700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="I94" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="J94" s="3">
         <v>-700</v>
@@ -3186,25 +3186,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76700</v>
+        <v>79100</v>
       </c>
       <c r="E100" s="3">
-        <v>78600</v>
+        <v>81100</v>
       </c>
       <c r="F100" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G100" s="3">
-        <v>89000</v>
+        <v>91800</v>
       </c>
       <c r="H100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I100" s="3">
         <v>1400</v>
       </c>
       <c r="J100" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3219,22 +3219,22 @@
         <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="F101" s="3">
         <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="H101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-106700</v>
+        <v>-110000</v>
       </c>
       <c r="E102" s="3">
-        <v>65700</v>
+        <v>67800</v>
       </c>
       <c r="F102" s="3">
-        <v>49000</v>
+        <v>50600</v>
       </c>
       <c r="G102" s="3">
-        <v>150700</v>
+        <v>155400</v>
       </c>
       <c r="H102" s="3">
-        <v>30100</v>
+        <v>31100</v>
       </c>
       <c r="I102" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="J102" s="3">
-        <v>29600</v>
+        <v>30500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ZEPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>897600</v>
+        <v>588900</v>
       </c>
       <c r="E8" s="3">
-        <v>924000</v>
+        <v>888500</v>
       </c>
       <c r="F8" s="3">
-        <v>834800</v>
+        <v>914500</v>
       </c>
       <c r="G8" s="3">
-        <v>523500</v>
+        <v>826200</v>
       </c>
       <c r="H8" s="3">
-        <v>294300</v>
+        <v>518200</v>
       </c>
       <c r="I8" s="3">
-        <v>223500</v>
+        <v>291300</v>
       </c>
       <c r="J8" s="3">
+        <v>221300</v>
+      </c>
+      <c r="K8" s="3">
         <v>128700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>710100</v>
+        <v>474700</v>
       </c>
       <c r="E9" s="3">
-        <v>732600</v>
+        <v>702900</v>
       </c>
       <c r="F9" s="3">
-        <v>624000</v>
+        <v>725100</v>
       </c>
       <c r="G9" s="3">
-        <v>388600</v>
+        <v>617600</v>
       </c>
       <c r="H9" s="3">
-        <v>223200</v>
+        <v>384600</v>
       </c>
       <c r="I9" s="3">
-        <v>183900</v>
+        <v>220900</v>
       </c>
       <c r="J9" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K9" s="3">
         <v>112900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>187500</v>
+        <v>114200</v>
       </c>
       <c r="E10" s="3">
-        <v>191400</v>
+        <v>185600</v>
       </c>
       <c r="F10" s="3">
-        <v>210800</v>
+        <v>189400</v>
       </c>
       <c r="G10" s="3">
-        <v>134900</v>
+        <v>208600</v>
       </c>
       <c r="H10" s="3">
-        <v>71000</v>
+        <v>133500</v>
       </c>
       <c r="I10" s="3">
-        <v>39700</v>
+        <v>70300</v>
       </c>
       <c r="J10" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K10" s="3">
         <v>15900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>74000</v>
+        <v>73500</v>
       </c>
       <c r="E12" s="3">
-        <v>77300</v>
+        <v>73200</v>
       </c>
       <c r="F12" s="3">
-        <v>61900</v>
+        <v>76500</v>
       </c>
       <c r="G12" s="3">
-        <v>37800</v>
+        <v>61200</v>
       </c>
       <c r="H12" s="3">
-        <v>22100</v>
+        <v>37400</v>
       </c>
       <c r="I12" s="3">
-        <v>19000</v>
+        <v>21900</v>
       </c>
       <c r="J12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K12" s="3">
         <v>8800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,27 +888,30 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
-        <v>-8100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>884100</v>
+        <v>649200</v>
       </c>
       <c r="E17" s="3">
-        <v>890800</v>
+        <v>875100</v>
       </c>
       <c r="F17" s="3">
-        <v>748000</v>
+        <v>881700</v>
       </c>
       <c r="G17" s="3">
-        <v>472100</v>
+        <v>740400</v>
       </c>
       <c r="H17" s="3">
-        <v>268100</v>
+        <v>467300</v>
       </c>
       <c r="I17" s="3">
-        <v>221600</v>
+        <v>265400</v>
       </c>
       <c r="J17" s="3">
+        <v>219400</v>
+      </c>
+      <c r="K17" s="3">
         <v>134500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13500</v>
+        <v>-60300</v>
       </c>
       <c r="E18" s="3">
-        <v>33100</v>
+        <v>13400</v>
       </c>
       <c r="F18" s="3">
-        <v>86700</v>
+        <v>32800</v>
       </c>
       <c r="G18" s="3">
-        <v>51400</v>
+        <v>85800</v>
       </c>
       <c r="H18" s="3">
-        <v>26100</v>
+        <v>50900</v>
       </c>
       <c r="I18" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,77 +1050,84 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8300</v>
+        <v>15400</v>
       </c>
       <c r="E20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
-        <v>7000</v>
-      </c>
       <c r="G20" s="3">
-        <v>4100</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>29200</v>
+        <v>-36500</v>
       </c>
       <c r="E21" s="3">
-        <v>42100</v>
+        <v>29000</v>
       </c>
       <c r="F21" s="3">
-        <v>96200</v>
+        <v>41600</v>
       </c>
       <c r="G21" s="3">
-        <v>56400</v>
+        <v>95200</v>
       </c>
       <c r="H21" s="3">
-        <v>28100</v>
+        <v>55800</v>
       </c>
       <c r="I21" s="3">
-        <v>4500</v>
+        <v>27800</v>
       </c>
       <c r="J21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,72 +1143,81 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15300</v>
+        <v>-53000</v>
       </c>
       <c r="E23" s="3">
-        <v>38100</v>
+        <v>15200</v>
       </c>
       <c r="F23" s="3">
-        <v>93700</v>
+        <v>37800</v>
       </c>
       <c r="G23" s="3">
-        <v>55500</v>
+        <v>92700</v>
       </c>
       <c r="H23" s="3">
-        <v>27600</v>
+        <v>55000</v>
       </c>
       <c r="I23" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
-        <v>4500</v>
-      </c>
       <c r="F24" s="3">
-        <v>11200</v>
+        <v>4400</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>11100</v>
       </c>
       <c r="H24" s="3">
-        <v>3400</v>
+        <v>7400</v>
       </c>
       <c r="I24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13800</v>
+        <v>-43600</v>
       </c>
       <c r="E26" s="3">
-        <v>33700</v>
+        <v>13600</v>
       </c>
       <c r="F26" s="3">
-        <v>82500</v>
+        <v>33300</v>
       </c>
       <c r="G26" s="3">
-        <v>48100</v>
+        <v>81700</v>
       </c>
       <c r="H26" s="3">
-        <v>24200</v>
+        <v>47600</v>
       </c>
       <c r="I26" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19800</v>
+        <v>-41000</v>
       </c>
       <c r="E27" s="3">
-        <v>32900</v>
+        <v>19600</v>
       </c>
       <c r="F27" s="3">
-        <v>82300</v>
+        <v>32500</v>
       </c>
       <c r="G27" s="3">
-        <v>16300</v>
+        <v>81400</v>
       </c>
       <c r="H27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I27" s="3">
         <v>7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1305,21 +1365,24 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8300</v>
+        <v>-15400</v>
       </c>
       <c r="E32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-4100</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19800</v>
+        <v>-41000</v>
       </c>
       <c r="E33" s="3">
-        <v>32900</v>
+        <v>19600</v>
       </c>
       <c r="F33" s="3">
-        <v>82300</v>
+        <v>32500</v>
       </c>
       <c r="G33" s="3">
-        <v>16300</v>
+        <v>81400</v>
       </c>
       <c r="H33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19800</v>
+        <v>-41000</v>
       </c>
       <c r="E35" s="3">
-        <v>32900</v>
+        <v>19600</v>
       </c>
       <c r="F35" s="3">
-        <v>82300</v>
+        <v>32500</v>
       </c>
       <c r="G35" s="3">
-        <v>16300</v>
+        <v>81400</v>
       </c>
       <c r="H35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>211600</v>
+        <v>126000</v>
       </c>
       <c r="E41" s="3">
-        <v>327200</v>
+        <v>209500</v>
       </c>
       <c r="F41" s="3">
-        <v>259000</v>
+        <v>323900</v>
       </c>
       <c r="G41" s="3">
-        <v>221000</v>
+        <v>256300</v>
       </c>
       <c r="H41" s="3">
-        <v>52600</v>
+        <v>218700</v>
       </c>
       <c r="I41" s="3">
-        <v>22000</v>
+        <v>52100</v>
       </c>
       <c r="J41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K41" s="3">
         <v>31600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3">
         <v>2800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
-        <v>2500</v>
-      </c>
       <c r="G42" s="3">
-        <v>7300</v>
+        <v>2400</v>
       </c>
       <c r="H42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I42" s="3">
         <v>2000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>156200</v>
+        <v>123700</v>
       </c>
       <c r="E43" s="3">
-        <v>183800</v>
+        <v>154600</v>
       </c>
       <c r="F43" s="3">
-        <v>239000</v>
+        <v>182000</v>
       </c>
       <c r="G43" s="3">
-        <v>108800</v>
+        <v>236500</v>
       </c>
       <c r="H43" s="3">
-        <v>92100</v>
+        <v>107700</v>
       </c>
       <c r="I43" s="3">
-        <v>71600</v>
+        <v>91100</v>
       </c>
       <c r="J43" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K43" s="3">
         <v>29500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>179400</v>
+        <v>145300</v>
       </c>
       <c r="E44" s="3">
-        <v>174900</v>
+        <v>177600</v>
       </c>
       <c r="F44" s="3">
-        <v>128400</v>
+        <v>173100</v>
       </c>
       <c r="G44" s="3">
-        <v>69600</v>
+        <v>127100</v>
       </c>
       <c r="H44" s="3">
-        <v>35900</v>
+        <v>68900</v>
       </c>
       <c r="I44" s="3">
-        <v>27600</v>
+        <v>35500</v>
       </c>
       <c r="J44" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K44" s="3">
         <v>12900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14500</v>
+        <v>20700</v>
       </c>
       <c r="E45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
-        <v>2100</v>
-      </c>
       <c r="G45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>564600</v>
+        <v>420600</v>
       </c>
       <c r="E46" s="3">
-        <v>693400</v>
+        <v>558800</v>
       </c>
       <c r="F46" s="3">
-        <v>630800</v>
+        <v>686300</v>
       </c>
       <c r="G46" s="3">
-        <v>410400</v>
+        <v>624400</v>
       </c>
       <c r="H46" s="3">
-        <v>186000</v>
+        <v>406200</v>
       </c>
       <c r="I46" s="3">
-        <v>123500</v>
+        <v>184100</v>
       </c>
       <c r="J46" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K46" s="3">
         <v>74600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>223000</v>
+        <v>240700</v>
       </c>
       <c r="E47" s="3">
-        <v>63800</v>
+        <v>220700</v>
       </c>
       <c r="F47" s="3">
-        <v>58300</v>
+        <v>63100</v>
       </c>
       <c r="G47" s="3">
-        <v>30000</v>
+        <v>57700</v>
       </c>
       <c r="H47" s="3">
-        <v>12200</v>
+        <v>29700</v>
       </c>
       <c r="I47" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="J47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34800</v>
+        <v>23600</v>
       </c>
       <c r="E48" s="3">
-        <v>39600</v>
+        <v>34400</v>
       </c>
       <c r="F48" s="3">
-        <v>24900</v>
+        <v>39200</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>24600</v>
       </c>
       <c r="H48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3">
-        <v>1600</v>
-      </c>
       <c r="J48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28200</v>
+        <v>26900</v>
       </c>
       <c r="E49" s="3">
-        <v>29800</v>
+        <v>28000</v>
       </c>
       <c r="F49" s="3">
-        <v>13200</v>
+        <v>29500</v>
       </c>
       <c r="G49" s="3">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="H49" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>37000</v>
       </c>
       <c r="E52" s="3">
-        <v>21300</v>
+        <v>23200</v>
       </c>
       <c r="F52" s="3">
-        <v>16000</v>
+        <v>21100</v>
       </c>
       <c r="G52" s="3">
-        <v>11800</v>
+        <v>15800</v>
       </c>
       <c r="H52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I52" s="3">
         <v>6400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>874000</v>
+        <v>748800</v>
       </c>
       <c r="E54" s="3">
-        <v>847900</v>
+        <v>865100</v>
       </c>
       <c r="F54" s="3">
-        <v>743200</v>
+        <v>839200</v>
       </c>
       <c r="G54" s="3">
-        <v>468000</v>
+        <v>735600</v>
       </c>
       <c r="H54" s="3">
-        <v>210500</v>
+        <v>463200</v>
       </c>
       <c r="I54" s="3">
-        <v>139700</v>
+        <v>208300</v>
       </c>
       <c r="J54" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K54" s="3">
         <v>76000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,139 +2138,152 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>196400</v>
+        <v>70700</v>
       </c>
       <c r="E57" s="3">
-        <v>281900</v>
+        <v>194400</v>
       </c>
       <c r="F57" s="3">
-        <v>289400</v>
+        <v>279000</v>
       </c>
       <c r="G57" s="3">
-        <v>154400</v>
+        <v>286400</v>
       </c>
       <c r="H57" s="3">
-        <v>102800</v>
+        <v>152800</v>
       </c>
       <c r="I57" s="3">
-        <v>78600</v>
+        <v>101800</v>
       </c>
       <c r="J57" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K57" s="3">
         <v>37300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>66300</v>
+        <v>137700</v>
       </c>
       <c r="E58" s="3">
-        <v>72500</v>
+        <v>65600</v>
       </c>
       <c r="F58" s="3">
+        <v>71700</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>5600</v>
-      </c>
       <c r="H58" s="3">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="I58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46400</v>
+        <v>28800</v>
       </c>
       <c r="E59" s="3">
-        <v>46300</v>
+        <v>45900</v>
       </c>
       <c r="F59" s="3">
-        <v>66800</v>
+        <v>45800</v>
       </c>
       <c r="G59" s="3">
-        <v>39300</v>
+        <v>66100</v>
       </c>
       <c r="H59" s="3">
-        <v>18100</v>
+        <v>38900</v>
       </c>
       <c r="I59" s="3">
-        <v>10600</v>
+        <v>17900</v>
       </c>
       <c r="J59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>309100</v>
+        <v>237200</v>
       </c>
       <c r="E60" s="3">
-        <v>400700</v>
+        <v>305900</v>
       </c>
       <c r="F60" s="3">
-        <v>356400</v>
+        <v>396600</v>
       </c>
       <c r="G60" s="3">
-        <v>199300</v>
+        <v>352800</v>
       </c>
       <c r="H60" s="3">
-        <v>126000</v>
+        <v>197300</v>
       </c>
       <c r="I60" s="3">
-        <v>91100</v>
+        <v>124700</v>
       </c>
       <c r="J60" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K60" s="3">
         <v>39900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104400</v>
+        <v>97300</v>
       </c>
       <c r="E61" s="3">
-        <v>8600</v>
+        <v>103300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39200</v>
+        <v>32700</v>
       </c>
       <c r="E62" s="3">
-        <v>46500</v>
+        <v>38800</v>
       </c>
       <c r="F62" s="3">
-        <v>28100</v>
+        <v>46000</v>
       </c>
       <c r="G62" s="3">
-        <v>8800</v>
+        <v>27800</v>
       </c>
       <c r="H62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>454600</v>
+        <v>368900</v>
       </c>
       <c r="E66" s="3">
-        <v>455800</v>
+        <v>449900</v>
       </c>
       <c r="F66" s="3">
-        <v>384000</v>
+        <v>451100</v>
       </c>
       <c r="G66" s="3">
-        <v>207900</v>
+        <v>380100</v>
       </c>
       <c r="H66" s="3">
-        <v>127800</v>
+        <v>205800</v>
       </c>
       <c r="I66" s="3">
-        <v>91100</v>
+        <v>126500</v>
       </c>
       <c r="J66" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K66" s="3">
         <v>39900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2401,20 +2568,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>50200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>44300</v>
+        <v>49700</v>
       </c>
       <c r="J70" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K70" s="3">
         <v>39100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>182600</v>
+        <v>134000</v>
       </c>
       <c r="E72" s="3">
-        <v>162800</v>
+        <v>180700</v>
       </c>
       <c r="F72" s="3">
-        <v>130800</v>
+        <v>161100</v>
       </c>
       <c r="G72" s="3">
-        <v>48800</v>
+        <v>129400</v>
       </c>
       <c r="H72" s="3">
-        <v>18800</v>
+        <v>48300</v>
       </c>
       <c r="I72" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>419400</v>
+        <v>379900</v>
       </c>
       <c r="E76" s="3">
-        <v>392100</v>
+        <v>415100</v>
       </c>
       <c r="F76" s="3">
-        <v>359200</v>
+        <v>388100</v>
       </c>
       <c r="G76" s="3">
-        <v>260100</v>
+        <v>355500</v>
       </c>
       <c r="H76" s="3">
-        <v>32400</v>
+        <v>257400</v>
       </c>
       <c r="I76" s="3">
+        <v>32100</v>
+      </c>
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19800</v>
+        <v>-41000</v>
       </c>
       <c r="E81" s="3">
-        <v>32900</v>
+        <v>19600</v>
       </c>
       <c r="F81" s="3">
-        <v>82300</v>
+        <v>32500</v>
       </c>
       <c r="G81" s="3">
-        <v>16300</v>
+        <v>81400</v>
       </c>
       <c r="H81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="E83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
-        <v>2500</v>
-      </c>
       <c r="G83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33400</v>
+        <v>-112000</v>
       </c>
       <c r="E89" s="3">
-        <v>22600</v>
+        <v>-33000</v>
       </c>
       <c r="F89" s="3">
-        <v>61500</v>
+        <v>22400</v>
       </c>
       <c r="G89" s="3">
-        <v>101600</v>
+        <v>60800</v>
       </c>
       <c r="H89" s="3">
-        <v>34200</v>
+        <v>100600</v>
       </c>
       <c r="I89" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6600</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12000</v>
+        <v>-6500</v>
       </c>
       <c r="F91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-153600</v>
+        <v>-6000</v>
       </c>
       <c r="E94" s="3">
-        <v>-29700</v>
+        <v>-152000</v>
       </c>
       <c r="F94" s="3">
-        <v>-16200</v>
+        <v>-29400</v>
       </c>
       <c r="G94" s="3">
-        <v>-46700</v>
+        <v>-16000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5600</v>
+        <v>-46200</v>
       </c>
       <c r="I94" s="3">
-        <v>-14300</v>
+        <v>-5500</v>
       </c>
       <c r="J94" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,13 +3292,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>79100</v>
+        <v>41100</v>
       </c>
       <c r="E100" s="3">
-        <v>81100</v>
+        <v>78300</v>
       </c>
       <c r="F100" s="3">
-        <v>3700</v>
+        <v>80300</v>
       </c>
       <c r="G100" s="3">
-        <v>91800</v>
+        <v>3600</v>
       </c>
       <c r="H100" s="3">
+        <v>90900</v>
+      </c>
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
-        <v>8700</v>
-      </c>
       <c r="H101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>800</v>
-      </c>
       <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-110000</v>
+        <v>-76200</v>
       </c>
       <c r="E102" s="3">
-        <v>67800</v>
+        <v>-108900</v>
       </c>
       <c r="F102" s="3">
-        <v>50600</v>
+        <v>67100</v>
       </c>
       <c r="G102" s="3">
-        <v>155400</v>
+        <v>50100</v>
       </c>
       <c r="H102" s="3">
-        <v>31100</v>
+        <v>153800</v>
       </c>
       <c r="I102" s="3">
-        <v>-9600</v>
+        <v>30800</v>
       </c>
       <c r="J102" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K102" s="3">
         <v>30500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>588900</v>
+        <v>570800</v>
       </c>
       <c r="E8" s="3">
-        <v>888500</v>
+        <v>861100</v>
       </c>
       <c r="F8" s="3">
-        <v>914500</v>
+        <v>886400</v>
       </c>
       <c r="G8" s="3">
-        <v>826200</v>
+        <v>800800</v>
       </c>
       <c r="H8" s="3">
-        <v>518200</v>
+        <v>502300</v>
       </c>
       <c r="I8" s="3">
-        <v>291300</v>
+        <v>282300</v>
       </c>
       <c r="J8" s="3">
-        <v>221300</v>
+        <v>214500</v>
       </c>
       <c r="K8" s="3">
         <v>128700</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>474700</v>
+        <v>460200</v>
       </c>
       <c r="E9" s="3">
-        <v>702900</v>
+        <v>681200</v>
       </c>
       <c r="F9" s="3">
-        <v>725100</v>
+        <v>702800</v>
       </c>
       <c r="G9" s="3">
-        <v>617600</v>
+        <v>598600</v>
       </c>
       <c r="H9" s="3">
-        <v>384600</v>
+        <v>372800</v>
       </c>
       <c r="I9" s="3">
-        <v>220900</v>
+        <v>214100</v>
       </c>
       <c r="J9" s="3">
-        <v>182000</v>
+        <v>176400</v>
       </c>
       <c r="K9" s="3">
         <v>112900</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>114200</v>
+        <v>110700</v>
       </c>
       <c r="E10" s="3">
-        <v>185600</v>
+        <v>179900</v>
       </c>
       <c r="F10" s="3">
-        <v>189400</v>
+        <v>183600</v>
       </c>
       <c r="G10" s="3">
-        <v>208600</v>
+        <v>202200</v>
       </c>
       <c r="H10" s="3">
-        <v>133500</v>
+        <v>129400</v>
       </c>
       <c r="I10" s="3">
-        <v>70300</v>
+        <v>68200</v>
       </c>
       <c r="J10" s="3">
-        <v>39300</v>
+        <v>38000</v>
       </c>
       <c r="K10" s="3">
         <v>15900</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>73500</v>
+        <v>71200</v>
       </c>
       <c r="E12" s="3">
-        <v>73200</v>
+        <v>71000</v>
       </c>
       <c r="F12" s="3">
-        <v>76500</v>
+        <v>74100</v>
       </c>
       <c r="G12" s="3">
-        <v>61200</v>
+        <v>59400</v>
       </c>
       <c r="H12" s="3">
-        <v>37400</v>
+        <v>36300</v>
       </c>
       <c r="I12" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="J12" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="K12" s="3">
         <v>8800</v>
@@ -898,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="G14" s="3">
         <v>400</v>
       </c>
       <c r="H14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>649200</v>
+        <v>629200</v>
       </c>
       <c r="E17" s="3">
-        <v>875100</v>
+        <v>848200</v>
       </c>
       <c r="F17" s="3">
-        <v>881700</v>
+        <v>854600</v>
       </c>
       <c r="G17" s="3">
-        <v>740400</v>
+        <v>717600</v>
       </c>
       <c r="H17" s="3">
-        <v>467300</v>
+        <v>452900</v>
       </c>
       <c r="I17" s="3">
-        <v>265400</v>
+        <v>257200</v>
       </c>
       <c r="J17" s="3">
-        <v>219400</v>
+        <v>212600</v>
       </c>
       <c r="K17" s="3">
         <v>134500</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-60300</v>
+        <v>-58400</v>
       </c>
       <c r="E18" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="F18" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="G18" s="3">
-        <v>85800</v>
+        <v>83200</v>
       </c>
       <c r="H18" s="3">
-        <v>50900</v>
+        <v>49300</v>
       </c>
       <c r="I18" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="J18" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K18" s="3">
         <v>-5800</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
         <v>1400</v>
       </c>
       <c r="J20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36500</v>
+        <v>-35400</v>
       </c>
       <c r="E21" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="F21" s="3">
-        <v>41600</v>
+        <v>40300</v>
       </c>
       <c r="G21" s="3">
-        <v>95200</v>
+        <v>92300</v>
       </c>
       <c r="H21" s="3">
-        <v>55800</v>
+        <v>54100</v>
       </c>
       <c r="I21" s="3">
-        <v>27800</v>
+        <v>27000</v>
       </c>
       <c r="J21" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K21" s="3">
         <v>-5500</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="E22" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-53000</v>
+        <v>-51300</v>
       </c>
       <c r="E23" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="F23" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="G23" s="3">
-        <v>92700</v>
+        <v>89900</v>
       </c>
       <c r="H23" s="3">
-        <v>55000</v>
+        <v>53300</v>
       </c>
       <c r="I23" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="J23" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K23" s="3">
         <v>-5600</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="E24" s="3">
         <v>1500</v>
       </c>
       <c r="F24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G24" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="H24" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I24" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43600</v>
+        <v>-42300</v>
       </c>
       <c r="E26" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F26" s="3">
-        <v>33300</v>
+        <v>32300</v>
       </c>
       <c r="G26" s="3">
-        <v>81700</v>
+        <v>79200</v>
       </c>
       <c r="H26" s="3">
-        <v>47600</v>
+        <v>46100</v>
       </c>
       <c r="I26" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="J26" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K26" s="3">
         <v>-5400</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="E27" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F27" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="G27" s="3">
-        <v>81400</v>
+        <v>78900</v>
       </c>
       <c r="H27" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I27" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="J27" s="3">
         <v>-1700</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15400</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
         <v>-1400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="E33" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F33" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="G33" s="3">
-        <v>81400</v>
+        <v>78900</v>
       </c>
       <c r="H33" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I33" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J33" s="3">
         <v>-1700</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="E35" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F35" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="G35" s="3">
-        <v>81400</v>
+        <v>78900</v>
       </c>
       <c r="H35" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I35" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J35" s="3">
         <v>-1700</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>126000</v>
+        <v>122200</v>
       </c>
       <c r="E41" s="3">
-        <v>209500</v>
+        <v>203000</v>
       </c>
       <c r="F41" s="3">
-        <v>323900</v>
+        <v>313900</v>
       </c>
       <c r="G41" s="3">
-        <v>256300</v>
+        <v>248400</v>
       </c>
       <c r="H41" s="3">
-        <v>218700</v>
+        <v>212000</v>
       </c>
       <c r="I41" s="3">
-        <v>52100</v>
+        <v>50500</v>
       </c>
       <c r="J41" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="K41" s="3">
         <v>31600</v>
@@ -1686,22 +1686,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E42" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G42" s="3">
         <v>2400</v>
       </c>
       <c r="H42" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J42" s="3">
         <v>1300</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>123700</v>
+        <v>119900</v>
       </c>
       <c r="E43" s="3">
-        <v>154600</v>
+        <v>149900</v>
       </c>
       <c r="F43" s="3">
-        <v>182000</v>
+        <v>176400</v>
       </c>
       <c r="G43" s="3">
-        <v>236500</v>
+        <v>229300</v>
       </c>
       <c r="H43" s="3">
-        <v>107700</v>
+        <v>104400</v>
       </c>
       <c r="I43" s="3">
-        <v>91100</v>
+        <v>88300</v>
       </c>
       <c r="J43" s="3">
-        <v>70900</v>
+        <v>68700</v>
       </c>
       <c r="K43" s="3">
         <v>29500</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145300</v>
+        <v>140800</v>
       </c>
       <c r="E44" s="3">
-        <v>177600</v>
+        <v>172100</v>
       </c>
       <c r="F44" s="3">
-        <v>173100</v>
+        <v>167800</v>
       </c>
       <c r="G44" s="3">
-        <v>127100</v>
+        <v>123100</v>
       </c>
       <c r="H44" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="I44" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="J44" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="K44" s="3">
         <v>12900</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="F45" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J45" s="3">
         <v>900</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>420600</v>
+        <v>407600</v>
       </c>
       <c r="E46" s="3">
-        <v>558800</v>
+        <v>541600</v>
       </c>
       <c r="F46" s="3">
-        <v>686300</v>
+        <v>665200</v>
       </c>
       <c r="G46" s="3">
-        <v>624400</v>
+        <v>605200</v>
       </c>
       <c r="H46" s="3">
-        <v>406200</v>
+        <v>393700</v>
       </c>
       <c r="I46" s="3">
-        <v>184100</v>
+        <v>178500</v>
       </c>
       <c r="J46" s="3">
-        <v>122200</v>
+        <v>118500</v>
       </c>
       <c r="K46" s="3">
         <v>74600</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>240700</v>
+        <v>233300</v>
       </c>
       <c r="E47" s="3">
-        <v>220700</v>
+        <v>213900</v>
       </c>
       <c r="F47" s="3">
-        <v>63100</v>
+        <v>61200</v>
       </c>
       <c r="G47" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="H47" s="3">
-        <v>29700</v>
+        <v>28800</v>
       </c>
       <c r="I47" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J47" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23600</v>
+        <v>22900</v>
       </c>
       <c r="E48" s="3">
-        <v>34400</v>
+        <v>33400</v>
       </c>
       <c r="F48" s="3">
-        <v>39200</v>
+        <v>38000</v>
       </c>
       <c r="G48" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="H48" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="3">
         <v>1500</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="E49" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="F49" s="3">
-        <v>29500</v>
+        <v>28600</v>
       </c>
       <c r="G49" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H49" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I49" s="3">
         <v>1600</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="E52" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="G52" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="H52" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="I52" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="J52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>748800</v>
+        <v>725800</v>
       </c>
       <c r="E54" s="3">
-        <v>865100</v>
+        <v>838500</v>
       </c>
       <c r="F54" s="3">
-        <v>839200</v>
+        <v>813400</v>
       </c>
       <c r="G54" s="3">
-        <v>735600</v>
+        <v>713000</v>
       </c>
       <c r="H54" s="3">
-        <v>463200</v>
+        <v>449000</v>
       </c>
       <c r="I54" s="3">
-        <v>208300</v>
+        <v>201900</v>
       </c>
       <c r="J54" s="3">
-        <v>138300</v>
+        <v>134000</v>
       </c>
       <c r="K54" s="3">
         <v>76000</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>70700</v>
+        <v>68600</v>
       </c>
       <c r="E57" s="3">
-        <v>194400</v>
+        <v>188400</v>
       </c>
       <c r="F57" s="3">
-        <v>279000</v>
+        <v>270400</v>
       </c>
       <c r="G57" s="3">
-        <v>286400</v>
+        <v>277600</v>
       </c>
       <c r="H57" s="3">
-        <v>152800</v>
+        <v>148100</v>
       </c>
       <c r="I57" s="3">
-        <v>101800</v>
+        <v>98600</v>
       </c>
       <c r="J57" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="K57" s="3">
         <v>37300</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137700</v>
+        <v>133400</v>
       </c>
       <c r="E58" s="3">
-        <v>65600</v>
+        <v>63600</v>
       </c>
       <c r="F58" s="3">
-        <v>71700</v>
+        <v>69500</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I58" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J58" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="E59" s="3">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="F59" s="3">
-        <v>45800</v>
+        <v>44400</v>
       </c>
       <c r="G59" s="3">
-        <v>66100</v>
+        <v>64100</v>
       </c>
       <c r="H59" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="I59" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="J59" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="K59" s="3">
         <v>2600</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>237200</v>
+        <v>229900</v>
       </c>
       <c r="E60" s="3">
-        <v>305900</v>
+        <v>296500</v>
       </c>
       <c r="F60" s="3">
-        <v>396600</v>
+        <v>384400</v>
       </c>
       <c r="G60" s="3">
-        <v>352800</v>
+        <v>341900</v>
       </c>
       <c r="H60" s="3">
-        <v>197300</v>
+        <v>191200</v>
       </c>
       <c r="I60" s="3">
-        <v>124700</v>
+        <v>120900</v>
       </c>
       <c r="J60" s="3">
-        <v>90200</v>
+        <v>87400</v>
       </c>
       <c r="K60" s="3">
         <v>39900</v>
@@ -2277,13 +2277,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>97300</v>
+        <v>94300</v>
       </c>
       <c r="E61" s="3">
-        <v>103300</v>
+        <v>100100</v>
       </c>
       <c r="F61" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="E62" s="3">
-        <v>38800</v>
+        <v>37600</v>
       </c>
       <c r="F62" s="3">
-        <v>46000</v>
+        <v>44600</v>
       </c>
       <c r="G62" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="H62" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I62" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>368900</v>
+        <v>357600</v>
       </c>
       <c r="E66" s="3">
-        <v>449900</v>
+        <v>436100</v>
       </c>
       <c r="F66" s="3">
-        <v>451100</v>
+        <v>437200</v>
       </c>
       <c r="G66" s="3">
-        <v>380100</v>
+        <v>368400</v>
       </c>
       <c r="H66" s="3">
-        <v>205800</v>
+        <v>199400</v>
       </c>
       <c r="I66" s="3">
-        <v>126500</v>
+        <v>122600</v>
       </c>
       <c r="J66" s="3">
-        <v>90200</v>
+        <v>87400</v>
       </c>
       <c r="K66" s="3">
         <v>39900</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>49700</v>
+        <v>48200</v>
       </c>
       <c r="J70" s="3">
-        <v>43800</v>
+        <v>42500</v>
       </c>
       <c r="K70" s="3">
         <v>39100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>134000</v>
+        <v>129900</v>
       </c>
       <c r="E72" s="3">
-        <v>180700</v>
+        <v>175100</v>
       </c>
       <c r="F72" s="3">
-        <v>161100</v>
+        <v>156200</v>
       </c>
       <c r="G72" s="3">
-        <v>129400</v>
+        <v>125500</v>
       </c>
       <c r="H72" s="3">
-        <v>48300</v>
+        <v>46900</v>
       </c>
       <c r="I72" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="J72" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="K72" s="3">
         <v>-8700</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>379900</v>
+        <v>368200</v>
       </c>
       <c r="E76" s="3">
-        <v>415100</v>
+        <v>402400</v>
       </c>
       <c r="F76" s="3">
-        <v>388100</v>
+        <v>376200</v>
       </c>
       <c r="G76" s="3">
-        <v>355500</v>
+        <v>344600</v>
       </c>
       <c r="H76" s="3">
-        <v>257400</v>
+        <v>249500</v>
       </c>
       <c r="I76" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="J76" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K76" s="3">
         <v>-3000</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="E81" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F81" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="G81" s="3">
-        <v>81400</v>
+        <v>78900</v>
       </c>
       <c r="H81" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I81" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J81" s="3">
         <v>-1700</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E83" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G83" s="3">
         <v>2400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-112000</v>
+        <v>-108500</v>
       </c>
       <c r="E89" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="F89" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="G89" s="3">
-        <v>60800</v>
+        <v>59000</v>
       </c>
       <c r="H89" s="3">
-        <v>100600</v>
+        <v>97500</v>
       </c>
       <c r="I89" s="3">
-        <v>33900</v>
+        <v>32800</v>
       </c>
       <c r="J89" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K89" s="3">
         <v>-1000</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F91" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="H91" s="3">
         <v>-2400</v>
@@ -3170,7 +3170,7 @@
         <v>-3000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E94" s="3">
-        <v>-152000</v>
+        <v>-147300</v>
       </c>
       <c r="F94" s="3">
-        <v>-29400</v>
+        <v>-28500</v>
       </c>
       <c r="G94" s="3">
-        <v>-16000</v>
+        <v>-15500</v>
       </c>
       <c r="H94" s="3">
-        <v>-46200</v>
+        <v>-44800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J94" s="3">
-        <v>-14100</v>
+        <v>-13700</v>
       </c>
       <c r="K94" s="3">
         <v>-700</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41100</v>
+        <v>39800</v>
       </c>
       <c r="E100" s="3">
-        <v>78300</v>
+        <v>75900</v>
       </c>
       <c r="F100" s="3">
-        <v>80300</v>
+        <v>77800</v>
       </c>
       <c r="G100" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H100" s="3">
-        <v>90900</v>
+        <v>88100</v>
       </c>
       <c r="I100" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J100" s="3">
         <v>1400</v>
@@ -3467,19 +3467,19 @@
         <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="G101" s="3">
         <v>1600</v>
       </c>
       <c r="H101" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76200</v>
+        <v>-73900</v>
       </c>
       <c r="E102" s="3">
-        <v>-108900</v>
+        <v>-105600</v>
       </c>
       <c r="F102" s="3">
-        <v>67100</v>
+        <v>65000</v>
       </c>
       <c r="G102" s="3">
-        <v>50100</v>
+        <v>48500</v>
       </c>
       <c r="H102" s="3">
-        <v>153800</v>
+        <v>149100</v>
       </c>
       <c r="I102" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="J102" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="K102" s="3">
         <v>30500</v>

--- a/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEPP_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>570800</v>
+        <v>572000</v>
       </c>
       <c r="E8" s="3">
-        <v>861100</v>
+        <v>863000</v>
       </c>
       <c r="F8" s="3">
-        <v>886400</v>
+        <v>888300</v>
       </c>
       <c r="G8" s="3">
-        <v>800800</v>
+        <v>802600</v>
       </c>
       <c r="H8" s="3">
-        <v>502300</v>
+        <v>503300</v>
       </c>
       <c r="I8" s="3">
-        <v>282300</v>
+        <v>282900</v>
       </c>
       <c r="J8" s="3">
-        <v>214500</v>
+        <v>214900</v>
       </c>
       <c r="K8" s="3">
         <v>128700</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>460200</v>
+        <v>461200</v>
       </c>
       <c r="E9" s="3">
-        <v>681200</v>
+        <v>682700</v>
       </c>
       <c r="F9" s="3">
-        <v>702800</v>
+        <v>704300</v>
       </c>
       <c r="G9" s="3">
-        <v>598600</v>
+        <v>599900</v>
       </c>
       <c r="H9" s="3">
-        <v>372800</v>
+        <v>373600</v>
       </c>
       <c r="I9" s="3">
-        <v>214100</v>
+        <v>214600</v>
       </c>
       <c r="J9" s="3">
-        <v>176400</v>
+        <v>176800</v>
       </c>
       <c r="K9" s="3">
         <v>112900</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>110700</v>
+        <v>110900</v>
       </c>
       <c r="E10" s="3">
-        <v>179900</v>
+        <v>180300</v>
       </c>
       <c r="F10" s="3">
-        <v>183600</v>
+        <v>184000</v>
       </c>
       <c r="G10" s="3">
-        <v>202200</v>
+        <v>202700</v>
       </c>
       <c r="H10" s="3">
-        <v>129400</v>
+        <v>129700</v>
       </c>
       <c r="I10" s="3">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="J10" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="K10" s="3">
         <v>15900</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>71200</v>
+        <v>71400</v>
       </c>
       <c r="E12" s="3">
-        <v>71000</v>
+        <v>71100</v>
       </c>
       <c r="F12" s="3">
-        <v>74100</v>
+        <v>74300</v>
       </c>
       <c r="G12" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="H12" s="3">
         <v>36300</v>
@@ -850,7 +850,7 @@
         <v>21200</v>
       </c>
       <c r="J12" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="K12" s="3">
         <v>8800</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>629200</v>
+        <v>630600</v>
       </c>
       <c r="E17" s="3">
-        <v>848200</v>
+        <v>850000</v>
       </c>
       <c r="F17" s="3">
-        <v>854600</v>
+        <v>856500</v>
       </c>
       <c r="G17" s="3">
-        <v>717600</v>
+        <v>719200</v>
       </c>
       <c r="H17" s="3">
-        <v>452900</v>
+        <v>453900</v>
       </c>
       <c r="I17" s="3">
-        <v>257200</v>
+        <v>257800</v>
       </c>
       <c r="J17" s="3">
-        <v>212600</v>
+        <v>213100</v>
       </c>
       <c r="K17" s="3">
         <v>134500</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-58400</v>
+        <v>-58600</v>
       </c>
       <c r="E18" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F18" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="G18" s="3">
-        <v>83200</v>
+        <v>83400</v>
       </c>
       <c r="H18" s="3">
-        <v>49300</v>
+        <v>49500</v>
       </c>
       <c r="I18" s="3">
         <v>25100</v>
@@ -1060,7 +1060,7 @@
         <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="3">
         <v>4800</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35400</v>
+        <v>-35500</v>
       </c>
       <c r="E21" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="F21" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="G21" s="3">
-        <v>92300</v>
+        <v>92500</v>
       </c>
       <c r="H21" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="I21" s="3">
         <v>27000</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="E23" s="3">
         <v>14700</v>
       </c>
       <c r="F23" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="G23" s="3">
-        <v>89900</v>
+        <v>90100</v>
       </c>
       <c r="H23" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="I23" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="J23" s="3">
         <v>4000</v>
@@ -1198,7 +1198,7 @@
         <v>4300</v>
       </c>
       <c r="G24" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="H24" s="3">
         <v>7200</v>
@@ -1261,16 +1261,16 @@
         <v>13200</v>
       </c>
       <c r="F26" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="G26" s="3">
-        <v>79200</v>
+        <v>79300</v>
       </c>
       <c r="H26" s="3">
-        <v>46100</v>
+        <v>46200</v>
       </c>
       <c r="I26" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="J26" s="3">
         <v>3600</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="E27" s="3">
         <v>19000</v>
       </c>
       <c r="F27" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="G27" s="3">
-        <v>78900</v>
+        <v>79100</v>
       </c>
       <c r="H27" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="I27" s="3">
         <v>6900</v>
@@ -1456,7 +1456,7 @@
         <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="F32" s="3">
         <v>-4800</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="E33" s="3">
         <v>19000</v>
       </c>
       <c r="F33" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="G33" s="3">
-        <v>78900</v>
+        <v>79100</v>
       </c>
       <c r="H33" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="I33" s="3">
         <v>6400</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="E35" s="3">
         <v>19000</v>
       </c>
       <c r="F35" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="G35" s="3">
-        <v>78900</v>
+        <v>79100</v>
       </c>
       <c r="H35" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="I35" s="3">
         <v>6400</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122200</v>
+        <v>122400</v>
       </c>
       <c r="E41" s="3">
-        <v>203000</v>
+        <v>203500</v>
       </c>
       <c r="F41" s="3">
-        <v>313900</v>
+        <v>314600</v>
       </c>
       <c r="G41" s="3">
-        <v>248400</v>
+        <v>249000</v>
       </c>
       <c r="H41" s="3">
-        <v>212000</v>
+        <v>212500</v>
       </c>
       <c r="I41" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="J41" s="3">
         <v>21100</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>119900</v>
+        <v>120200</v>
       </c>
       <c r="E43" s="3">
-        <v>149900</v>
+        <v>150200</v>
       </c>
       <c r="F43" s="3">
-        <v>176400</v>
+        <v>176700</v>
       </c>
       <c r="G43" s="3">
-        <v>229300</v>
+        <v>229800</v>
       </c>
       <c r="H43" s="3">
-        <v>104400</v>
+        <v>104600</v>
       </c>
       <c r="I43" s="3">
-        <v>88300</v>
+        <v>88500</v>
       </c>
       <c r="J43" s="3">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="K43" s="3">
         <v>29500</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>140800</v>
+        <v>141100</v>
       </c>
       <c r="E44" s="3">
-        <v>172100</v>
+        <v>172500</v>
       </c>
       <c r="F44" s="3">
-        <v>167800</v>
+        <v>168100</v>
       </c>
       <c r="G44" s="3">
-        <v>123100</v>
+        <v>123400</v>
       </c>
       <c r="H44" s="3">
-        <v>66800</v>
+        <v>66900</v>
       </c>
       <c r="I44" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="J44" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="K44" s="3">
         <v>12900</v>
@@ -1785,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="E45" s="3">
         <v>13900</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>407600</v>
+        <v>408500</v>
       </c>
       <c r="E46" s="3">
-        <v>541600</v>
+        <v>542800</v>
       </c>
       <c r="F46" s="3">
-        <v>665200</v>
+        <v>666600</v>
       </c>
       <c r="G46" s="3">
-        <v>605200</v>
+        <v>606500</v>
       </c>
       <c r="H46" s="3">
-        <v>393700</v>
+        <v>394600</v>
       </c>
       <c r="I46" s="3">
-        <v>178500</v>
+        <v>178900</v>
       </c>
       <c r="J46" s="3">
-        <v>118500</v>
+        <v>118700</v>
       </c>
       <c r="K46" s="3">
         <v>74600</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>233300</v>
+        <v>233800</v>
       </c>
       <c r="E47" s="3">
-        <v>213900</v>
+        <v>214400</v>
       </c>
       <c r="F47" s="3">
-        <v>61200</v>
+        <v>61300</v>
       </c>
       <c r="G47" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="H47" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="I47" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="J47" s="3">
         <v>10800</v>
@@ -1887,13 +1887,13 @@
         <v>22900</v>
       </c>
       <c r="E48" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="F48" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="G48" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="H48" s="3">
         <v>5500</v>
@@ -1920,13 +1920,13 @@
         <v>26100</v>
       </c>
       <c r="E49" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="F49" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="G49" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="H49" s="3">
         <v>9600</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="E52" s="3">
         <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="G52" s="3">
         <v>15400</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725800</v>
+        <v>727400</v>
       </c>
       <c r="E54" s="3">
-        <v>838500</v>
+        <v>840300</v>
       </c>
       <c r="F54" s="3">
-        <v>813400</v>
+        <v>815200</v>
       </c>
       <c r="G54" s="3">
-        <v>713000</v>
+        <v>714500</v>
       </c>
       <c r="H54" s="3">
-        <v>449000</v>
+        <v>449900</v>
       </c>
       <c r="I54" s="3">
-        <v>201900</v>
+        <v>202400</v>
       </c>
       <c r="J54" s="3">
-        <v>134000</v>
+        <v>134300</v>
       </c>
       <c r="K54" s="3">
         <v>76000</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="E57" s="3">
-        <v>188400</v>
+        <v>188800</v>
       </c>
       <c r="F57" s="3">
-        <v>270400</v>
+        <v>271000</v>
       </c>
       <c r="G57" s="3">
-        <v>277600</v>
+        <v>278200</v>
       </c>
       <c r="H57" s="3">
-        <v>148100</v>
+        <v>148400</v>
       </c>
       <c r="I57" s="3">
-        <v>98600</v>
+        <v>98900</v>
       </c>
       <c r="J57" s="3">
-        <v>75400</v>
+        <v>75600</v>
       </c>
       <c r="K57" s="3">
         <v>37300</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>133400</v>
+        <v>133700</v>
       </c>
       <c r="E58" s="3">
-        <v>63600</v>
+        <v>63800</v>
       </c>
       <c r="F58" s="3">
-        <v>69500</v>
+        <v>69700</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="E59" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F59" s="3">
         <v>44500</v>
       </c>
-      <c r="F59" s="3">
-        <v>44400</v>
-      </c>
       <c r="G59" s="3">
-        <v>64100</v>
+        <v>64200</v>
       </c>
       <c r="H59" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="I59" s="3">
         <v>17400</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>229900</v>
+        <v>230400</v>
       </c>
       <c r="E60" s="3">
-        <v>296500</v>
+        <v>297200</v>
       </c>
       <c r="F60" s="3">
-        <v>384400</v>
+        <v>385200</v>
       </c>
       <c r="G60" s="3">
-        <v>341900</v>
+        <v>342700</v>
       </c>
       <c r="H60" s="3">
-        <v>191200</v>
+        <v>191600</v>
       </c>
       <c r="I60" s="3">
-        <v>120900</v>
+        <v>121100</v>
       </c>
       <c r="J60" s="3">
-        <v>87400</v>
+        <v>87600</v>
       </c>
       <c r="K60" s="3">
         <v>39900</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>94300</v>
+        <v>94500</v>
       </c>
       <c r="E61" s="3">
-        <v>100100</v>
+        <v>100400</v>
       </c>
       <c r="F61" s="3">
         <v>8300</v>
@@ -2313,16 +2313,16 @@
         <v>31700</v>
       </c>
       <c r="E62" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="F62" s="3">
-        <v>44600</v>
+        <v>44700</v>
       </c>
       <c r="G62" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="H62" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="I62" s="3">
         <v>1400</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>357600</v>
+        <v>358300</v>
       </c>
       <c r="E66" s="3">
-        <v>436100</v>
+        <v>437000</v>
       </c>
       <c r="F66" s="3">
-        <v>437200</v>
+        <v>438200</v>
       </c>
       <c r="G66" s="3">
-        <v>368400</v>
+        <v>369200</v>
       </c>
       <c r="H66" s="3">
-        <v>199400</v>
+        <v>199900</v>
       </c>
       <c r="I66" s="3">
-        <v>122600</v>
+        <v>122900</v>
       </c>
       <c r="J66" s="3">
-        <v>87400</v>
+        <v>87600</v>
       </c>
       <c r="K66" s="3">
         <v>39900</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>48200</v>
+        <v>48300</v>
       </c>
       <c r="J70" s="3">
-        <v>42500</v>
+        <v>42600</v>
       </c>
       <c r="K70" s="3">
         <v>39100</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>129900</v>
+        <v>130200</v>
       </c>
       <c r="E72" s="3">
-        <v>175100</v>
+        <v>175500</v>
       </c>
       <c r="F72" s="3">
-        <v>156200</v>
+        <v>156500</v>
       </c>
       <c r="G72" s="3">
-        <v>125500</v>
+        <v>125700</v>
       </c>
       <c r="H72" s="3">
-        <v>46900</v>
+        <v>47000</v>
       </c>
       <c r="I72" s="3">
         <v>18100</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>368200</v>
+        <v>369000</v>
       </c>
       <c r="E76" s="3">
-        <v>402400</v>
+        <v>403200</v>
       </c>
       <c r="F76" s="3">
-        <v>376200</v>
+        <v>377000</v>
       </c>
       <c r="G76" s="3">
-        <v>344600</v>
+        <v>345300</v>
       </c>
       <c r="H76" s="3">
-        <v>249500</v>
+        <v>250100</v>
       </c>
       <c r="I76" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="J76" s="3">
         <v>4100</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="E81" s="3">
         <v>19000</v>
       </c>
       <c r="F81" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="G81" s="3">
-        <v>78900</v>
+        <v>79100</v>
       </c>
       <c r="H81" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="I81" s="3">
         <v>6400</v>
@@ -2909,7 +2909,7 @@
         <v>8100</v>
       </c>
       <c r="E83" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F83" s="3">
         <v>3700</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-108500</v>
+        <v>-108800</v>
       </c>
       <c r="E89" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="F89" s="3">
         <v>21700</v>
       </c>
       <c r="G89" s="3">
-        <v>59000</v>
+        <v>59100</v>
       </c>
       <c r="H89" s="3">
-        <v>97500</v>
+        <v>97700</v>
       </c>
       <c r="I89" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="J89" s="3">
         <v>2400</v>
@@ -3155,7 +3155,7 @@
         <v>-1100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F91" s="3">
         <v>-11500</v>
@@ -3254,16 +3254,16 @@
         <v>-5800</v>
       </c>
       <c r="E94" s="3">
-        <v>-147300</v>
+        <v>-147600</v>
       </c>
       <c r="F94" s="3">
-        <v>-28500</v>
+        <v>-28600</v>
       </c>
       <c r="G94" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="H94" s="3">
-        <v>-44800</v>
+        <v>-44900</v>
       </c>
       <c r="I94" s="3">
         <v>-5400</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="E100" s="3">
-        <v>75900</v>
+        <v>76100</v>
       </c>
       <c r="F100" s="3">
-        <v>77800</v>
+        <v>78000</v>
       </c>
       <c r="G100" s="3">
         <v>3500</v>
       </c>
       <c r="H100" s="3">
-        <v>88100</v>
+        <v>88300</v>
       </c>
       <c r="I100" s="3">
         <v>2800</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-73900</v>
+        <v>-74000</v>
       </c>
       <c r="E102" s="3">
-        <v>-105600</v>
+        <v>-105800</v>
       </c>
       <c r="F102" s="3">
-        <v>65000</v>
+        <v>65100</v>
       </c>
       <c r="G102" s="3">
-        <v>48500</v>
+        <v>48600</v>
       </c>
       <c r="H102" s="3">
-        <v>149100</v>
+        <v>149400</v>
       </c>
       <c r="I102" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="J102" s="3">
         <v>-9200</v>
